--- a/data/lbm_sailfish_hist_propagation.xlsx
+++ b/data/lbm_sailfish_hist_propagation.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="NX">Feuil2!$E$5</definedName>
-    <definedName name="NY">Feuil2!$E$5</definedName>
+    <definedName name="NY">Feuil2!$E$6</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -705,7 +705,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -763,6 +763,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
@@ -773,7 +776,7 @@
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="580">
+  <dxfs count="192">
     <dxf>
       <font>
         <color rgb="FF0070C0"/>
@@ -793,2441 +796,6 @@
       <font>
         <color rgb="FF0070C0"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -5156,7 +2724,7 @@
   <dimension ref="A2:CL40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y17" sqref="Y17"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5253,7 +2821,7 @@
       <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="49">
         <v>4</v>
       </c>
       <c r="K6" s="43" t="s">
@@ -5510,7 +3078,7 @@
       <c r="F11" s="34"/>
       <c r="G11" s="18">
         <f>H11+$E$5*$E12</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H11" s="29">
         <f>I11+J11*$E$4</f>
@@ -5528,9 +3096,9 @@
         <f>IF(I11&gt;0,I11-1,IF(H11&gt;0,IF($E12&lt;NY-1,G11+$E$5-1,""),""))</f>
         <v/>
       </c>
-      <c r="L11" s="24">
+      <c r="L11" s="24" t="str">
         <f>IF($E12&lt;NY-1,G11+$E$5,"")</f>
-        <v>12</v>
+        <v/>
       </c>
       <c r="M11" s="12">
         <f>IF(I11&lt;$E$4-1,I11+1,IF(H11&lt;$E$5-1,IF($E12&lt;NY-1,G11+$E$5+1,""),""))</f>
@@ -5538,7 +3106,7 @@
       </c>
       <c r="N11" s="18">
         <f>O11+$E$5*$E12</f>
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="O11" s="29">
         <f>P11+Q11*$E$4</f>
@@ -5556,9 +3124,9 @@
         <f>IF(P11&gt;0,P11-1,IF(O11&gt;0,IF($E12&lt;NY-1,N11+$E$5-1,""),""))</f>
         <v>0</v>
       </c>
-      <c r="S11" s="24">
+      <c r="S11" s="24" t="str">
         <f>IF($E12&lt;NY-1,N11+$E$5,"")</f>
-        <v>13</v>
+        <v/>
       </c>
       <c r="T11" s="12">
         <f>IF(P11&lt;$E$4-1,P11+1,IF(O11&lt;$E$5-1,IF($E12&lt;NY-1,N11+$E$5+1,""),""))</f>
@@ -5566,7 +3134,7 @@
       </c>
       <c r="U11" s="18">
         <f>V11+$E$5*$E12</f>
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="V11" s="29">
         <f>W11+X11*$E$4</f>
@@ -5584,17 +3152,17 @@
         <f>IF(W11&gt;0,W11-1,IF(V11&gt;0,IF($E12&lt;NY-1,U11+$E$5-1,""),""))</f>
         <v>1</v>
       </c>
-      <c r="Z11" s="24">
+      <c r="Z11" s="24" t="str">
         <f>IF($E12&lt;NY-1,U11+$E$5,"")</f>
-        <v>14</v>
-      </c>
-      <c r="AA11" s="12">
+        <v/>
+      </c>
+      <c r="AA11" s="12" t="str">
         <f>IF(W11&lt;$E$4-1,W11+1,IF(V11&lt;$E$5-1,IF($E12&lt;NY-1,U11+$E$5+1,""),""))</f>
-        <v>15</v>
+        <v/>
       </c>
       <c r="AB11" s="18">
         <f>AC11+$E$5*$E12</f>
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="AC11" s="29">
         <f>AD11+AE11*$E$4</f>
@@ -5608,13 +3176,13 @@
         <f>TRUNC(AG$9/$E$4,0)</f>
         <v>1</v>
       </c>
-      <c r="AF11" s="15">
+      <c r="AF11" s="15" t="str">
         <f>IF(AD11&gt;0,AD11-1,IF(AC11&gt;0,IF($E12&lt;NY-1,AB11+$E$5-1,""),""))</f>
-        <v>14</v>
-      </c>
-      <c r="AG11" s="24">
+        <v/>
+      </c>
+      <c r="AG11" s="24" t="str">
         <f>IF($E12&lt;NY-1,AB11+$E$5,"")</f>
-        <v>15</v>
+        <v/>
       </c>
       <c r="AH11" s="12">
         <f>IF(AD11&lt;$E$4-1,AD11+1,IF(AC11&lt;$E$5-1,IF($E12&lt;NY-1,AB11+$E$5+1,""),""))</f>
@@ -5622,7 +3190,7 @@
       </c>
       <c r="AI11" s="18">
         <f>AJ11+$E$5*$E12</f>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="AJ11" s="29">
         <f>AK11+AL11*$E$4</f>
@@ -5640,9 +3208,9 @@
         <f>IF(AK11&gt;0,AK11-1,IF(AJ11&gt;0,IF($E12&lt;NY-1,AI11+$E$5-1,""),""))</f>
         <v>0</v>
       </c>
-      <c r="AN11" s="24">
+      <c r="AN11" s="24" t="str">
         <f>IF($E12&lt;NY-1,AI11+$E$5,"")</f>
-        <v>16</v>
+        <v/>
       </c>
       <c r="AO11" s="12">
         <f>IF(AK11&lt;$E$4-1,AK11+1,IF(AJ11&lt;$E$5-1,IF($E12&lt;NY-1,AI11+$E$5+1,""),""))</f>
@@ -5650,7 +3218,7 @@
       </c>
       <c r="AP11" s="18">
         <f>AQ11+$E$5*$E12</f>
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="AQ11" s="29">
         <f>AR11+AS11*$E$4</f>
@@ -5668,17 +3236,17 @@
         <f>IF(AR11&gt;0,AR11-1,IF(AQ11&gt;0,IF($E12&lt;NY-1,AP11+$E$5-1,""),""))</f>
         <v>1</v>
       </c>
-      <c r="AU11" s="24">
+      <c r="AU11" s="24" t="str">
         <f>IF($E12&lt;NY-1,AP11+$E$5,"")</f>
-        <v>17</v>
-      </c>
-      <c r="AV11" s="12">
+        <v/>
+      </c>
+      <c r="AV11" s="12" t="str">
         <f>IF(AR11&lt;$E$4-1,AR11+1,IF(AQ11&lt;$E$5-1,IF($E12&lt;NY-1,AP11+$E$5+1,""),""))</f>
-        <v>18</v>
+        <v/>
       </c>
       <c r="AW11" s="18">
         <f>AX11+$E$5*$E12</f>
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="AX11" s="29">
         <f>AY11+AZ11*$E$4</f>
@@ -5692,13 +3260,13 @@
         <f>TRUNC(BB$9/$E$4,0)</f>
         <v>2</v>
       </c>
-      <c r="BA11" s="15">
+      <c r="BA11" s="15" t="str">
         <f>IF(AY11&gt;0,AY11-1,IF(AX11&gt;0,IF($E12&lt;NY-1,AW11+$E$5-1,""),""))</f>
-        <v>17</v>
-      </c>
-      <c r="BB11" s="24">
+        <v/>
+      </c>
+      <c r="BB11" s="24" t="str">
         <f>IF($E12&lt;NY-1,AW11+$E$5,"")</f>
-        <v>18</v>
+        <v/>
       </c>
       <c r="BC11" s="12">
         <f>IF(AY11&lt;$E$4-1,AY11+1,IF(AX11&lt;$E$5-1,IF($E12&lt;NY-1,AW11+$E$5+1,""),""))</f>
@@ -5706,7 +3274,7 @@
       </c>
       <c r="BD11" s="18">
         <f>BE11+$E$5*$E12</f>
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="BE11" s="29">
         <f>BF11+BG11*$E$4</f>
@@ -5724,9 +3292,9 @@
         <f>IF(BF11&gt;0,BF11-1,IF(BE11&gt;0,IF($E12&lt;NY-1,BD11+$E$5-1,""),""))</f>
         <v>0</v>
       </c>
-      <c r="BI11" s="24">
+      <c r="BI11" s="24" t="str">
         <f>IF($E12&lt;NY-1,BD11+$E$5,"")</f>
-        <v>19</v>
+        <v/>
       </c>
       <c r="BJ11" s="12">
         <f>IF(BF11&lt;$E$4-1,BF11+1,IF(BE11&lt;$E$5-1,IF($E12&lt;NY-1,BD11+$E$5+1,""),""))</f>
@@ -5734,7 +3302,7 @@
       </c>
       <c r="BK11" s="18">
         <f>BL11+$E$5*$E12</f>
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="BL11" s="29">
         <f>BM11+BN11*$E$4</f>
@@ -5752,17 +3320,17 @@
         <f>IF(BM11&gt;0,BM11-1,IF(BL11&gt;0,IF($E12&lt;NY-1,BK11+$E$5-1,""),""))</f>
         <v>1</v>
       </c>
-      <c r="BP11" s="24">
+      <c r="BP11" s="24" t="str">
         <f>IF($E12&lt;NY-1,BK11+$E$5,"")</f>
-        <v>20</v>
-      </c>
-      <c r="BQ11" s="12">
+        <v/>
+      </c>
+      <c r="BQ11" s="12" t="str">
         <f>IF(BM11&lt;$E$4-1,BM11+1,IF(BL11&lt;$E$5-1,IF($E12&lt;NY-1,BK11+$E$5+1,""),""))</f>
-        <v>21</v>
+        <v/>
       </c>
       <c r="BR11" s="18">
         <f>BS11+$E$5*$E12</f>
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="BS11" s="29">
         <f>BT11+BU11*$E$4</f>
@@ -5776,13 +3344,13 @@
         <f>TRUNC(BW$9/$E$4,0)</f>
         <v>3</v>
       </c>
-      <c r="BV11" s="15">
+      <c r="BV11" s="15" t="str">
         <f>IF(BT11&gt;0,BT11-1,IF(BS11&gt;0,IF($E12&lt;NY-1,BR11+$E$5-1,""),""))</f>
-        <v>20</v>
-      </c>
-      <c r="BW11" s="24">
+        <v/>
+      </c>
+      <c r="BW11" s="24" t="str">
         <f>IF($E12&lt;NY-1,BR11+$E$5,"")</f>
-        <v>21</v>
+        <v/>
       </c>
       <c r="BX11" s="12">
         <f>IF(BT11&lt;$E$4-1,BT11+1,IF(BS11&lt;$E$5-1,IF($E12&lt;NY-1,BR11+$E$5+1,""),""))</f>
@@ -5790,7 +3358,7 @@
       </c>
       <c r="BY11" s="18">
         <f>BZ11+$E$5*$E12</f>
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="BZ11" s="29">
         <f>CA11+CB11*$E$4</f>
@@ -5808,9 +3376,9 @@
         <f>IF(CA11&gt;0,CA11-1,IF(BZ11&gt;0,IF($E12&lt;NY-1,BY11+$E$5-1,""),""))</f>
         <v>0</v>
       </c>
-      <c r="CD11" s="24">
+      <c r="CD11" s="24" t="str">
         <f>IF($E12&lt;NY-1,BY11+$E$5,"")</f>
-        <v>22</v>
+        <v/>
       </c>
       <c r="CE11" s="12">
         <f>IF(CA11&lt;$E$4-1,CA11+1,IF(BZ11&lt;$E$5-1,IF($E12&lt;NY-1,BY11+$E$5+1,""),""))</f>
@@ -5818,7 +3386,7 @@
       </c>
       <c r="CF11" s="18">
         <f>CG11+$E$5*$E12</f>
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="CG11" s="29">
         <f>CH11+CI11*$E$4</f>
@@ -5836,9 +3404,9 @@
         <f>IF(CH11&gt;0,CH11-1,IF(CG11&gt;0,IF($E12&lt;NY-1,CF11+$E$5-1,""),""))</f>
         <v>1</v>
       </c>
-      <c r="CK11" s="24">
+      <c r="CK11" s="24" t="str">
         <f>IF($E12&lt;NY-1,CF11+$E$5,"")</f>
-        <v>23</v>
+        <v/>
       </c>
       <c r="CL11" s="12" t="str">
         <f>IF(CH11&lt;$E$4-1,CH11+1,IF(CG11&lt;$E$5-1,IF($E12&lt;NY-1,CF11+$E$5+1,""),""))</f>
@@ -5847,12 +3415,12 @@
     </row>
     <row r="12" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E12" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F12" s="34"/>
       <c r="G12" s="32">
         <f>H12+$E$5*$E12</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H12" s="30">
         <f>I12+J12*$E$4</f>
@@ -5872,7 +3440,7 @@
       </c>
       <c r="L12" s="42">
         <f>G12</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="M12" s="6">
         <f>IF(I12&lt;$E$4-1,I12+1,IF(H12&lt;$E$5-1,G12+1,""))</f>
@@ -5880,7 +3448,7 @@
       </c>
       <c r="N12" s="32">
         <f>O12+$E$5*$E12</f>
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="O12" s="30">
         <f>P12+Q12*$E$4</f>
@@ -5900,7 +3468,7 @@
       </c>
       <c r="S12" s="42">
         <f>N12</f>
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="T12" s="6">
         <f>IF(P12&lt;$E$4-1,P12+1,IF(O12&lt;$E$5-1,N12+1,""))</f>
@@ -5908,7 +3476,7 @@
       </c>
       <c r="U12" s="32">
         <f>V12+$E$5*$E12</f>
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="V12" s="30">
         <f>W12+X12*$E$4</f>
@@ -5928,15 +3496,15 @@
       </c>
       <c r="Z12" s="42">
         <f>U12</f>
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="AA12" s="6">
         <f>IF(W12&lt;$E$4-1,W12+1,IF(V12&lt;$E$5-1,U12+1,""))</f>
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="AB12" s="32">
         <f>AC12+$E$5*$E12</f>
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="AC12" s="30">
         <f>AD12+AE12*$E$4</f>
@@ -5952,11 +3520,11 @@
       </c>
       <c r="AF12" s="11">
         <f>IF(AD12&gt;0,AD12-1,IF(AC12&gt;0,AB12-1,""))</f>
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="AG12" s="42">
         <f>AB12</f>
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="AH12" s="6">
         <f>IF(AD12&lt;$E$4-1,AD12+1,IF(AC12&lt;$E$5-1,AB12+1,""))</f>
@@ -5964,7 +3532,7 @@
       </c>
       <c r="AI12" s="32">
         <f>AJ12+$E$5*$E12</f>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="AJ12" s="30">
         <f>AK12+AL12*$E$4</f>
@@ -5984,7 +3552,7 @@
       </c>
       <c r="AN12" s="42">
         <f>AI12</f>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="AO12" s="6">
         <f>IF(AK12&lt;$E$4-1,AK12+1,IF(AJ12&lt;$E$5-1,AI12+1,""))</f>
@@ -5992,7 +3560,7 @@
       </c>
       <c r="AP12" s="32">
         <f>AQ12+$E$5*$E12</f>
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="AQ12" s="30">
         <f>AR12+AS12*$E$4</f>
@@ -6012,15 +3580,15 @@
       </c>
       <c r="AU12" s="42">
         <f>AP12</f>
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="AV12" s="6">
         <f>IF(AR12&lt;$E$4-1,AR12+1,IF(AQ12&lt;$E$5-1,AP12+1,""))</f>
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="AW12" s="32">
         <f>AX12+$E$5*$E12</f>
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="AX12" s="30">
         <f>AY12+AZ12*$E$4</f>
@@ -6036,11 +3604,11 @@
       </c>
       <c r="BA12" s="11">
         <f>IF(AY12&gt;0,AY12-1,IF(AX12&gt;0,AW12-1,""))</f>
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="BB12" s="42">
         <f>AW12</f>
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="BC12" s="6">
         <f>IF(AY12&lt;$E$4-1,AY12+1,IF(AX12&lt;$E$5-1,AW12+1,""))</f>
@@ -6048,7 +3616,7 @@
       </c>
       <c r="BD12" s="32">
         <f>BE12+$E$5*$E12</f>
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="BE12" s="30">
         <f>BF12+BG12*$E$4</f>
@@ -6068,7 +3636,7 @@
       </c>
       <c r="BI12" s="42">
         <f>BD12</f>
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="BJ12" s="6">
         <f>IF(BF12&lt;$E$4-1,BF12+1,IF(BE12&lt;$E$5-1,BD12+1,""))</f>
@@ -6076,7 +3644,7 @@
       </c>
       <c r="BK12" s="32">
         <f>BL12+$E$5*$E12</f>
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="BL12" s="30">
         <f>BM12+BN12*$E$4</f>
@@ -6096,15 +3664,15 @@
       </c>
       <c r="BP12" s="42">
         <f>BK12</f>
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="BQ12" s="6">
         <f>IF(BM12&lt;$E$4-1,BM12+1,IF(BL12&lt;$E$5-1,BK12+1,""))</f>
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="BR12" s="32">
         <f>BS12+$E$5*$E12</f>
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="BS12" s="30">
         <f>BT12+BU12*$E$4</f>
@@ -6120,11 +3688,11 @@
       </c>
       <c r="BV12" s="11">
         <f>IF(BT12&gt;0,BT12-1,IF(BS12&gt;0,BR12-1,""))</f>
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="BW12" s="42">
         <f>BR12</f>
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="BX12" s="6">
         <f>IF(BT12&lt;$E$4-1,BT12+1,IF(BS12&lt;$E$5-1,BR12+1,""))</f>
@@ -6132,7 +3700,7 @@
       </c>
       <c r="BY12" s="32">
         <f>BZ12+$E$5*$E12</f>
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="BZ12" s="30">
         <f>CA12+CB12*$E$4</f>
@@ -6152,7 +3720,7 @@
       </c>
       <c r="CD12" s="42">
         <f>BY12</f>
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="CE12" s="6">
         <f>IF(CA12&lt;$E$4-1,CA12+1,IF(BZ12&lt;$E$5-1,BY12+1,""))</f>
@@ -6160,7 +3728,7 @@
       </c>
       <c r="CF12" s="32">
         <f>CG12+$E$5*$E12</f>
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="CG12" s="30">
         <f>CH12+CI12*$E$4</f>
@@ -6180,7 +3748,7 @@
       </c>
       <c r="CK12" s="42">
         <f>CF12</f>
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="CL12" s="6" t="str">
         <f>IF(CH12&lt;$E$4-1,CH12+1,IF(CG12&lt;$E$5-1,CF12+1,""))</f>
@@ -6191,7 +3759,7 @@
       <c r="F13" s="34"/>
       <c r="G13" s="33">
         <f>H13+$E$5*$E12</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H13" s="31">
         <f>I13+J13*$E$4</f>
@@ -6209,9 +3777,9 @@
         <f>IF(I13&gt;0,I13-1,IF(H13&gt;0,IF($E12&gt;0,G13-$E$5-1,""),""))</f>
         <v/>
       </c>
-      <c r="L13" s="17" t="str">
+      <c r="L13" s="17">
         <f>IF($E12&gt;0,G11-$E$5,"")</f>
-        <v/>
+        <v>24</v>
       </c>
       <c r="M13" s="13">
         <f>IF(I13&lt;$E$4-1,I13+1,IF(H13&lt;$E$5-1,IF($E12&gt;0,G13-$E$5+1,""),""))</f>
@@ -6219,7 +3787,7 @@
       </c>
       <c r="N13" s="33">
         <f>O13+$E$5*$E12</f>
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="O13" s="31">
         <f>P13+Q13*$E$4</f>
@@ -6237,9 +3805,9 @@
         <f>IF(P13&gt;0,P13-1,IF(O13&gt;0,IF($E12&gt;0,N13-$E$5-1,""),""))</f>
         <v>0</v>
       </c>
-      <c r="S13" s="17" t="str">
+      <c r="S13" s="17">
         <f>IF($E12&gt;0,N11-$E$5,"")</f>
-        <v/>
+        <v>25</v>
       </c>
       <c r="T13" s="13">
         <f>IF(P13&lt;$E$4-1,P13+1,IF(O13&lt;$E$5-1,IF($E12&gt;0,N13-$E$5+1,""),""))</f>
@@ -6247,7 +3815,7 @@
       </c>
       <c r="U13" s="33">
         <f>V13+$E$5*$E12</f>
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="V13" s="31">
         <f>W13+X13*$E$4</f>
@@ -6265,17 +3833,17 @@
         <f>IF(W13&gt;0,W13-1,IF(V13&gt;0,IF($E12&gt;0,U13-$E$5-1,""),""))</f>
         <v>1</v>
       </c>
-      <c r="Z13" s="17" t="str">
+      <c r="Z13" s="17">
         <f>IF($E12&gt;0,U11-$E$5,"")</f>
-        <v/>
-      </c>
-      <c r="AA13" s="13" t="str">
+        <v>26</v>
+      </c>
+      <c r="AA13" s="13">
         <f>IF(W13&lt;$E$4-1,W13+1,IF(V13&lt;$E$5-1,IF($E12&gt;0,U13-$E$5+1,""),""))</f>
-        <v/>
+        <v>27</v>
       </c>
       <c r="AB13" s="33">
         <f>AC13+$E$5*$E12</f>
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="AC13" s="31">
         <f>AD13+AE13*$E$4</f>
@@ -6289,13 +3857,13 @@
         <f>TRUNC(AG$9/$E$4,0)</f>
         <v>1</v>
       </c>
-      <c r="AF13" s="16" t="str">
+      <c r="AF13" s="16">
         <f>IF(AD13&gt;0,AD13-1,IF(AC13&gt;0,IF($E12&gt;0,AB13-$E$5-1,""),""))</f>
-        <v/>
-      </c>
-      <c r="AG13" s="17" t="str">
+        <v>26</v>
+      </c>
+      <c r="AG13" s="17">
         <f>IF($E12&gt;0,AB11-$E$5,"")</f>
-        <v/>
+        <v>27</v>
       </c>
       <c r="AH13" s="13">
         <f>IF(AD13&lt;$E$4-1,AD13+1,IF(AC13&lt;$E$5-1,IF($E12&gt;0,AB13-$E$5+1,""),""))</f>
@@ -6303,7 +3871,7 @@
       </c>
       <c r="AI13" s="33">
         <f>AJ13+$E$5*$E12</f>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="AJ13" s="31">
         <f>AK13+AL13*$E$4</f>
@@ -6321,9 +3889,9 @@
         <f>IF(AK13&gt;0,AK13-1,IF(AJ13&gt;0,IF($E12&gt;0,AI13-$E$5-1,""),""))</f>
         <v>0</v>
       </c>
-      <c r="AN13" s="17" t="str">
+      <c r="AN13" s="17">
         <f>IF($E12&gt;0,AI11-$E$5,"")</f>
-        <v/>
+        <v>28</v>
       </c>
       <c r="AO13" s="13">
         <f>IF(AK13&lt;$E$4-1,AK13+1,IF(AJ13&lt;$E$5-1,IF($E12&gt;0,AI13-$E$5+1,""),""))</f>
@@ -6331,7 +3899,7 @@
       </c>
       <c r="AP13" s="33">
         <f>AQ13+$E$5*$E12</f>
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="AQ13" s="31">
         <f>AR13+AS13*$E$4</f>
@@ -6349,17 +3917,17 @@
         <f>IF(AR13&gt;0,AR13-1,IF(AQ13&gt;0,IF($E12&gt;0,AP13-$E$5-1,""),""))</f>
         <v>1</v>
       </c>
-      <c r="AU13" s="17" t="str">
+      <c r="AU13" s="17">
         <f>IF($E12&gt;0,AP11-$E$5,"")</f>
-        <v/>
-      </c>
-      <c r="AV13" s="13" t="str">
+        <v>29</v>
+      </c>
+      <c r="AV13" s="13">
         <f>IF(AR13&lt;$E$4-1,AR13+1,IF(AQ13&lt;$E$5-1,IF($E12&gt;0,AP13-$E$5+1,""),""))</f>
-        <v/>
+        <v>30</v>
       </c>
       <c r="AW13" s="33">
         <f>AX13+$E$5*$E12</f>
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="AX13" s="31">
         <f>AY13+AZ13*$E$4</f>
@@ -6373,13 +3941,13 @@
         <f>TRUNC(BB$9/$E$4,0)</f>
         <v>2</v>
       </c>
-      <c r="BA13" s="16" t="str">
+      <c r="BA13" s="16">
         <f>IF(AY13&gt;0,AY13-1,IF(AX13&gt;0,IF($E12&gt;0,AW13-$E$5-1,""),""))</f>
-        <v/>
-      </c>
-      <c r="BB13" s="17" t="str">
+        <v>29</v>
+      </c>
+      <c r="BB13" s="17">
         <f>IF($E12&gt;0,AW11-$E$5,"")</f>
-        <v/>
+        <v>30</v>
       </c>
       <c r="BC13" s="13">
         <f>IF(AY13&lt;$E$4-1,AY13+1,IF(AX13&lt;$E$5-1,IF($E12&gt;0,AW13-$E$5+1,""),""))</f>
@@ -6387,7 +3955,7 @@
       </c>
       <c r="BD13" s="33">
         <f>BE13+$E$5*$E12</f>
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="BE13" s="31">
         <f>BF13+BG13*$E$4</f>
@@ -6405,9 +3973,9 @@
         <f>IF(BF13&gt;0,BF13-1,IF(BE13&gt;0,IF($E12&gt;0,BD13-$E$5-1,""),""))</f>
         <v>0</v>
       </c>
-      <c r="BI13" s="17" t="str">
+      <c r="BI13" s="17">
         <f>IF($E12&gt;0,BD11-$E$5,"")</f>
-        <v/>
+        <v>31</v>
       </c>
       <c r="BJ13" s="13">
         <f>IF(BF13&lt;$E$4-1,BF13+1,IF(BE13&lt;$E$5-1,IF($E12&gt;0,BD13-$E$5+1,""),""))</f>
@@ -6415,7 +3983,7 @@
       </c>
       <c r="BK13" s="33">
         <f>BL13+$E$5*$E12</f>
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="BL13" s="31">
         <f>BM13+BN13*$E$4</f>
@@ -6433,17 +4001,17 @@
         <f>IF(BM13&gt;0,BM13-1,IF(BL13&gt;0,IF($E12&gt;0,BK13-$E$5-1,""),""))</f>
         <v>1</v>
       </c>
-      <c r="BP13" s="17" t="str">
+      <c r="BP13" s="17">
         <f>IF($E12&gt;0,BK11-$E$5,"")</f>
-        <v/>
-      </c>
-      <c r="BQ13" s="13" t="str">
+        <v>32</v>
+      </c>
+      <c r="BQ13" s="13">
         <f>IF(BM13&lt;$E$4-1,BM13+1,IF(BL13&lt;$E$5-1,IF($E12&gt;0,BK13-$E$5+1,""),""))</f>
-        <v/>
+        <v>33</v>
       </c>
       <c r="BR13" s="33">
         <f>BS13+$E$5*$E12</f>
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="BS13" s="31">
         <f>BT13+BU13*$E$4</f>
@@ -6457,13 +4025,13 @@
         <f>TRUNC(BW$9/$E$4,0)</f>
         <v>3</v>
       </c>
-      <c r="BV13" s="16" t="str">
+      <c r="BV13" s="16">
         <f>IF(BT13&gt;0,BT13-1,IF(BS13&gt;0,IF($E12&gt;0,BR13-$E$5-1,""),""))</f>
-        <v/>
-      </c>
-      <c r="BW13" s="17" t="str">
+        <v>32</v>
+      </c>
+      <c r="BW13" s="17">
         <f>IF($E12&gt;0,BR11-$E$5,"")</f>
-        <v/>
+        <v>33</v>
       </c>
       <c r="BX13" s="13">
         <f>IF(BT13&lt;$E$4-1,BT13+1,IF(BS13&lt;$E$5-1,IF($E12&gt;0,BR13-$E$5+1,""),""))</f>
@@ -6471,7 +4039,7 @@
       </c>
       <c r="BY13" s="33">
         <f>BZ13+$E$5*$E12</f>
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="BZ13" s="31">
         <f>CA13+CB13*$E$4</f>
@@ -6489,9 +4057,9 @@
         <f>IF(CA13&gt;0,CA13-1,IF(BZ13&gt;0,IF($E12&gt;0,BY13-$E$5-1,""),""))</f>
         <v>0</v>
       </c>
-      <c r="CD13" s="17" t="str">
+      <c r="CD13" s="17">
         <f>IF($E12&gt;0,BY11-$E$5,"")</f>
-        <v/>
+        <v>34</v>
       </c>
       <c r="CE13" s="13">
         <f>IF(CA13&lt;$E$4-1,CA13+1,IF(BZ13&lt;$E$5-1,IF($E12&gt;0,BY13-$E$5+1,""),""))</f>
@@ -6499,7 +4067,7 @@
       </c>
       <c r="CF13" s="33">
         <f>CG13+$E$5*$E12</f>
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="CG13" s="31">
         <f>CH13+CI13*$E$4</f>
@@ -6517,9 +4085,9 @@
         <f>IF(CH13&gt;0,CH13-1,IF(CG13&gt;0,IF($E12&gt;0,CF13-$E$5-1,""),""))</f>
         <v>1</v>
       </c>
-      <c r="CK13" s="17" t="str">
+      <c r="CK13" s="17">
         <f>IF($E12&gt;0,CF11-$E$5,"")</f>
-        <v/>
+        <v>35</v>
       </c>
       <c r="CL13" s="13" t="str">
         <f>IF(CH13&lt;$E$4-1,CH13+1,IF(CG13&lt;$E$5-1,IF($E12&gt;0,CF13-$E$5+1,""),""))</f>
@@ -6530,7 +4098,7 @@
       <c r="F14" s="34"/>
       <c r="G14" s="18">
         <f>H14+$E$5*$E15</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H14" s="29">
         <f t="shared" ref="H14:H22" si="0">I14+J14*$E$4</f>
@@ -6550,7 +4118,7 @@
       </c>
       <c r="L14" s="24">
         <f>IF($E15&lt;NY-1,G14+$E$5,"")</f>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="M14" s="12">
         <f>IF(I14&lt;$E$4-1,I14+1,IF(H14&lt;$E$5-1,IF($E15&lt;NY-1,G14+$E$5+1,""),""))</f>
@@ -6558,7 +4126,7 @@
       </c>
       <c r="N14" s="18">
         <f>O14+$E$5*$E15</f>
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="O14" s="29">
         <f t="shared" ref="O14:O22" si="3">P14+Q14*$E$4</f>
@@ -6578,7 +4146,7 @@
       </c>
       <c r="S14" s="24">
         <f>IF($E15&lt;NY-1,N14+$E$5,"")</f>
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="T14" s="12">
         <f>IF(P14&lt;$E$4-1,P14+1,IF(O14&lt;$E$5-1,IF($E15&lt;NY-1,N14+$E$5+1,""),""))</f>
@@ -6586,7 +4154,7 @@
       </c>
       <c r="U14" s="18">
         <f>V14+$E$5*$E15</f>
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="V14" s="29">
         <f t="shared" ref="V14:V22" si="6">W14+X14*$E$4</f>
@@ -6606,15 +4174,15 @@
       </c>
       <c r="Z14" s="24">
         <f>IF($E15&lt;NY-1,U14+$E$5,"")</f>
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="AA14" s="12">
         <f>IF(W14&lt;$E$4-1,W14+1,IF(V14&lt;$E$5-1,IF($E15&lt;NY-1,U14+$E$5+1,""),""))</f>
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="AB14" s="18">
         <f>AC14+$E$5*$E15</f>
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="AC14" s="29">
         <f t="shared" ref="AC14:AC22" si="9">AD14+AE14*$E$4</f>
@@ -6630,11 +4198,11 @@
       </c>
       <c r="AF14" s="15">
         <f>IF(AD14&gt;0,AD14-1,IF(AC14&gt;0,IF($E15&lt;NY-1,AB14+$E$5-1,""),""))</f>
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="AG14" s="24">
         <f>IF($E15&lt;NY-1,AB14+$E$5,"")</f>
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="AH14" s="12">
         <f>IF(AD14&lt;$E$4-1,AD14+1,IF(AC14&lt;$E$5-1,IF($E15&lt;NY-1,AB14+$E$5+1,""),""))</f>
@@ -6642,7 +4210,7 @@
       </c>
       <c r="AI14" s="18">
         <f>AJ14+$E$5*$E15</f>
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="AJ14" s="29">
         <f t="shared" ref="AJ14:AJ22" si="12">AK14+AL14*$E$4</f>
@@ -6662,7 +4230,7 @@
       </c>
       <c r="AN14" s="24">
         <f>IF($E15&lt;NY-1,AI14+$E$5,"")</f>
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AO14" s="12">
         <f>IF(AK14&lt;$E$4-1,AK14+1,IF(AJ14&lt;$E$5-1,IF($E15&lt;NY-1,AI14+$E$5+1,""),""))</f>
@@ -6670,7 +4238,7 @@
       </c>
       <c r="AP14" s="18">
         <f>AQ14+$E$5*$E15</f>
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AQ14" s="29">
         <f t="shared" ref="AQ14:AQ22" si="15">AR14+AS14*$E$4</f>
@@ -6690,15 +4258,15 @@
       </c>
       <c r="AU14" s="24">
         <f>IF($E15&lt;NY-1,AP14+$E$5,"")</f>
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AV14" s="12">
         <f>IF(AR14&lt;$E$4-1,AR14+1,IF(AQ14&lt;$E$5-1,IF($E15&lt;NY-1,AP14+$E$5+1,""),""))</f>
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AW14" s="18">
         <f>AX14+$E$5*$E15</f>
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="AX14" s="29">
         <f t="shared" ref="AX14:AX22" si="18">AY14+AZ14*$E$4</f>
@@ -6714,11 +4282,11 @@
       </c>
       <c r="BA14" s="15">
         <f>IF(AY14&gt;0,AY14-1,IF(AX14&gt;0,IF($E15&lt;NY-1,AW14+$E$5-1,""),""))</f>
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="BB14" s="24">
         <f>IF($E15&lt;NY-1,AW14+$E$5,"")</f>
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="BC14" s="12">
         <f>IF(AY14&lt;$E$4-1,AY14+1,IF(AX14&lt;$E$5-1,IF($E15&lt;NY-1,AW14+$E$5+1,""),""))</f>
@@ -6726,7 +4294,7 @@
       </c>
       <c r="BD14" s="18">
         <f>BE14+$E$5*$E15</f>
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="BE14" s="29">
         <f t="shared" ref="BE14:BE22" si="21">BF14+BG14*$E$4</f>
@@ -6746,7 +4314,7 @@
       </c>
       <c r="BI14" s="24">
         <f>IF($E15&lt;NY-1,BD14+$E$5,"")</f>
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="BJ14" s="12">
         <f>IF(BF14&lt;$E$4-1,BF14+1,IF(BE14&lt;$E$5-1,IF($E15&lt;NY-1,BD14+$E$5+1,""),""))</f>
@@ -6754,7 +4322,7 @@
       </c>
       <c r="BK14" s="18">
         <f>BL14+$E$5*$E15</f>
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="BL14" s="29">
         <f t="shared" ref="BL14:BL22" si="24">BM14+BN14*$E$4</f>
@@ -6774,15 +4342,15 @@
       </c>
       <c r="BP14" s="24">
         <f>IF($E15&lt;NY-1,BK14+$E$5,"")</f>
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="BQ14" s="12">
         <f>IF(BM14&lt;$E$4-1,BM14+1,IF(BL14&lt;$E$5-1,IF($E15&lt;NY-1,BK14+$E$5+1,""),""))</f>
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="BR14" s="18">
         <f>BS14+$E$5*$E15</f>
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="BS14" s="29">
         <f t="shared" ref="BS14:BS22" si="27">BT14+BU14*$E$4</f>
@@ -6798,11 +4366,11 @@
       </c>
       <c r="BV14" s="15">
         <f>IF(BT14&gt;0,BT14-1,IF(BS14&gt;0,IF($E15&lt;NY-1,BR14+$E$5-1,""),""))</f>
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="BW14" s="24">
         <f>IF($E15&lt;NY-1,BR14+$E$5,"")</f>
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="BX14" s="12">
         <f>IF(BT14&lt;$E$4-1,BT14+1,IF(BS14&lt;$E$5-1,IF($E15&lt;NY-1,BR14+$E$5+1,""),""))</f>
@@ -6810,7 +4378,7 @@
       </c>
       <c r="BY14" s="18">
         <f>BZ14+$E$5*$E15</f>
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="BZ14" s="29">
         <f t="shared" ref="BZ14:BZ22" si="30">CA14+CB14*$E$4</f>
@@ -6830,7 +4398,7 @@
       </c>
       <c r="CD14" s="24">
         <f>IF($E15&lt;NY-1,BY14+$E$5,"")</f>
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="CE14" s="12">
         <f>IF(CA14&lt;$E$4-1,CA14+1,IF(BZ14&lt;$E$5-1,IF($E15&lt;NY-1,BY14+$E$5+1,""),""))</f>
@@ -6838,7 +4406,7 @@
       </c>
       <c r="CF14" s="18">
         <f>CG14+$E$5*$E15</f>
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="CG14" s="29">
         <f t="shared" ref="CG14:CG22" si="33">CH14+CI14*$E$4</f>
@@ -6858,7 +4426,7 @@
       </c>
       <c r="CK14" s="24">
         <f>IF($E15&lt;NY-1,CF14+$E$5,"")</f>
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="CL14" s="12" t="str">
         <f>IF(CH14&lt;$E$4-1,CH14+1,IF(CG14&lt;$E$5-1,IF($E15&lt;NY-1,CF14+$E$5+1,""),""))</f>
@@ -6867,12 +4435,12 @@
     </row>
     <row r="15" spans="1:90" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E15" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="34"/>
       <c r="G15" s="32">
         <f>H15+$E$5*$E15</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H15" s="30">
         <f t="shared" si="0"/>
@@ -6892,7 +4460,7 @@
       </c>
       <c r="L15" s="42">
         <f>G15</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="M15" s="6">
         <f>IF(I15&lt;$E$4-1,I15+1,IF(H15&lt;$E$5-1,G15+1,""))</f>
@@ -6900,7 +4468,7 @@
       </c>
       <c r="N15" s="32">
         <f>O15+$E$5*$E15</f>
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="O15" s="30">
         <f t="shared" si="3"/>
@@ -6920,7 +4488,7 @@
       </c>
       <c r="S15" s="42">
         <f>N15</f>
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="T15" s="6">
         <f>IF(P15&lt;$E$4-1,P15+1,IF(O15&lt;$E$5-1,N15+1,""))</f>
@@ -6928,7 +4496,7 @@
       </c>
       <c r="U15" s="32">
         <f>V15+$E$5*$E15</f>
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="V15" s="30">
         <f t="shared" si="6"/>
@@ -6948,15 +4516,15 @@
       </c>
       <c r="Z15" s="42">
         <f>U15</f>
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="AA15" s="6">
         <f>IF(W15&lt;$E$4-1,W15+1,IF(V15&lt;$E$5-1,U15+1,""))</f>
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="AB15" s="32">
         <f>AC15+$E$5*$E15</f>
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="AC15" s="30">
         <f t="shared" si="9"/>
@@ -6972,11 +4540,11 @@
       </c>
       <c r="AF15" s="11">
         <f>IF(AD15&gt;0,AD15-1,IF(AC15&gt;0,AB15-1,""))</f>
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="AG15" s="42">
         <f>AB15</f>
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="AH15" s="6">
         <f>IF(AD15&lt;$E$4-1,AD15+1,IF(AC15&lt;$E$5-1,AB15+1,""))</f>
@@ -6984,7 +4552,7 @@
       </c>
       <c r="AI15" s="32">
         <f>AJ15+$E$5*$E15</f>
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="AJ15" s="30">
         <f t="shared" si="12"/>
@@ -7004,7 +4572,7 @@
       </c>
       <c r="AN15" s="42">
         <f>AI15</f>
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="AO15" s="6">
         <f>IF(AK15&lt;$E$4-1,AK15+1,IF(AJ15&lt;$E$5-1,AI15+1,""))</f>
@@ -7012,7 +4580,7 @@
       </c>
       <c r="AP15" s="32">
         <f>AQ15+$E$5*$E15</f>
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AQ15" s="30">
         <f t="shared" si="15"/>
@@ -7032,15 +4600,15 @@
       </c>
       <c r="AU15" s="42">
         <f>AP15</f>
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AV15" s="6">
         <f>IF(AR15&lt;$E$4-1,AR15+1,IF(AQ15&lt;$E$5-1,AP15+1,""))</f>
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="AW15" s="32">
         <f>AX15+$E$5*$E15</f>
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="AX15" s="30">
         <f t="shared" si="18"/>
@@ -7056,11 +4624,11 @@
       </c>
       <c r="BA15" s="11">
         <f>IF(AY15&gt;0,AY15-1,IF(AX15&gt;0,AW15-1,""))</f>
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="BB15" s="42">
         <f>AW15</f>
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="BC15" s="6">
         <f>IF(AY15&lt;$E$4-1,AY15+1,IF(AX15&lt;$E$5-1,AW15+1,""))</f>
@@ -7068,7 +4636,7 @@
       </c>
       <c r="BD15" s="32">
         <f>BE15+$E$5*$E15</f>
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="BE15" s="30">
         <f t="shared" si="21"/>
@@ -7088,7 +4656,7 @@
       </c>
       <c r="BI15" s="42">
         <f>BD15</f>
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="BJ15" s="6">
         <f>IF(BF15&lt;$E$4-1,BF15+1,IF(BE15&lt;$E$5-1,BD15+1,""))</f>
@@ -7096,7 +4664,7 @@
       </c>
       <c r="BK15" s="32">
         <f>BL15+$E$5*$E15</f>
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="BL15" s="30">
         <f t="shared" si="24"/>
@@ -7116,15 +4684,15 @@
       </c>
       <c r="BP15" s="42">
         <f>BK15</f>
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="BQ15" s="6">
         <f>IF(BM15&lt;$E$4-1,BM15+1,IF(BL15&lt;$E$5-1,BK15+1,""))</f>
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="BR15" s="32">
         <f>BS15+$E$5*$E15</f>
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="BS15" s="30">
         <f t="shared" si="27"/>
@@ -7140,11 +4708,11 @@
       </c>
       <c r="BV15" s="11">
         <f>IF(BT15&gt;0,BT15-1,IF(BS15&gt;0,BR15-1,""))</f>
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="BW15" s="42">
         <f>BR15</f>
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="BX15" s="6">
         <f>IF(BT15&lt;$E$4-1,BT15+1,IF(BS15&lt;$E$5-1,BR15+1,""))</f>
@@ -7152,7 +4720,7 @@
       </c>
       <c r="BY15" s="32">
         <f>BZ15+$E$5*$E15</f>
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="BZ15" s="30">
         <f t="shared" si="30"/>
@@ -7172,7 +4740,7 @@
       </c>
       <c r="CD15" s="42">
         <f>BY15</f>
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="CE15" s="6">
         <f>IF(CA15&lt;$E$4-1,CA15+1,IF(BZ15&lt;$E$5-1,BY15+1,""))</f>
@@ -7180,7 +4748,7 @@
       </c>
       <c r="CF15" s="32">
         <f>CG15+$E$5*$E15</f>
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="CG15" s="30">
         <f t="shared" si="33"/>
@@ -7200,7 +4768,7 @@
       </c>
       <c r="CK15" s="42">
         <f>CF15</f>
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="CL15" s="6" t="str">
         <f>IF(CH15&lt;$E$4-1,CH15+1,IF(CG15&lt;$E$5-1,CF15+1,""))</f>
@@ -7211,7 +4779,7 @@
       <c r="F16" s="34"/>
       <c r="G16" s="33">
         <f>H16+$E$5*$E15</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H16" s="31">
         <f t="shared" si="0"/>
@@ -7231,7 +4799,7 @@
       </c>
       <c r="L16" s="17">
         <f>IF($E15&gt;0,G14-$E$5,"")</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M16" s="13">
         <f>IF(I16&lt;$E$4-1,I16+1,IF(H16&lt;$E$5-1,IF($E15&gt;0,G16-$E$5+1,""),""))</f>
@@ -7239,7 +4807,7 @@
       </c>
       <c r="N16" s="33">
         <f>O16+$E$5*$E15</f>
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="O16" s="31">
         <f t="shared" si="3"/>
@@ -7259,7 +4827,7 @@
       </c>
       <c r="S16" s="17">
         <f>IF($E15&gt;0,N14-$E$5,"")</f>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="T16" s="13">
         <f>IF(P16&lt;$E$4-1,P16+1,IF(O16&lt;$E$5-1,IF($E15&gt;0,N16-$E$5+1,""),""))</f>
@@ -7267,7 +4835,7 @@
       </c>
       <c r="U16" s="33">
         <f>V16+$E$5*$E15</f>
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="V16" s="31">
         <f t="shared" si="6"/>
@@ -7287,15 +4855,15 @@
       </c>
       <c r="Z16" s="17">
         <f>IF($E15&gt;0,U14-$E$5,"")</f>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AA16" s="13">
         <f>IF(W16&lt;$E$4-1,W16+1,IF(V16&lt;$E$5-1,IF($E15&gt;0,U16-$E$5+1,""),""))</f>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AB16" s="33">
         <f>AC16+$E$5*$E15</f>
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="AC16" s="31">
         <f t="shared" si="9"/>
@@ -7311,11 +4879,11 @@
       </c>
       <c r="AF16" s="16">
         <f>IF(AD16&gt;0,AD16-1,IF(AC16&gt;0,IF($E15&gt;0,AB16-$E$5-1,""),""))</f>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AG16" s="17">
         <f>IF($E15&gt;0,AB14-$E$5,"")</f>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AH16" s="13">
         <f>IF(AD16&lt;$E$4-1,AD16+1,IF(AC16&lt;$E$5-1,IF($E15&gt;0,AB16-$E$5+1,""),""))</f>
@@ -7323,7 +4891,7 @@
       </c>
       <c r="AI16" s="33">
         <f>AJ16+$E$5*$E15</f>
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="AJ16" s="31">
         <f t="shared" si="12"/>
@@ -7343,7 +4911,7 @@
       </c>
       <c r="AN16" s="17">
         <f>IF($E15&gt;0,AI14-$E$5,"")</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AO16" s="13">
         <f>IF(AK16&lt;$E$4-1,AK16+1,IF(AJ16&lt;$E$5-1,IF($E15&gt;0,AI16-$E$5+1,""),""))</f>
@@ -7351,7 +4919,7 @@
       </c>
       <c r="AP16" s="33">
         <f>AQ16+$E$5*$E15</f>
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AQ16" s="31">
         <f t="shared" si="15"/>
@@ -7371,15 +4939,15 @@
       </c>
       <c r="AU16" s="17">
         <f>IF($E15&gt;0,AP14-$E$5,"")</f>
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AV16" s="13">
         <f>IF(AR16&lt;$E$4-1,AR16+1,IF(AQ16&lt;$E$5-1,IF($E15&gt;0,AP16-$E$5+1,""),""))</f>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="AW16" s="33">
         <f>AX16+$E$5*$E15</f>
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="AX16" s="31">
         <f t="shared" si="18"/>
@@ -7395,11 +4963,11 @@
       </c>
       <c r="BA16" s="16">
         <f>IF(AY16&gt;0,AY16-1,IF(AX16&gt;0,IF($E15&gt;0,AW16-$E$5-1,""),""))</f>
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="BB16" s="17">
         <f>IF($E15&gt;0,AW14-$E$5,"")</f>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="BC16" s="13">
         <f>IF(AY16&lt;$E$4-1,AY16+1,IF(AX16&lt;$E$5-1,IF($E15&gt;0,AW16-$E$5+1,""),""))</f>
@@ -7407,7 +4975,7 @@
       </c>
       <c r="BD16" s="33">
         <f>BE16+$E$5*$E15</f>
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="BE16" s="31">
         <f t="shared" si="21"/>
@@ -7427,7 +4995,7 @@
       </c>
       <c r="BI16" s="17">
         <f>IF($E15&gt;0,BD14-$E$5,"")</f>
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="BJ16" s="13">
         <f>IF(BF16&lt;$E$4-1,BF16+1,IF(BE16&lt;$E$5-1,IF($E15&gt;0,BD16-$E$5+1,""),""))</f>
@@ -7435,7 +5003,7 @@
       </c>
       <c r="BK16" s="33">
         <f>BL16+$E$5*$E15</f>
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="BL16" s="31">
         <f t="shared" si="24"/>
@@ -7455,15 +5023,15 @@
       </c>
       <c r="BP16" s="17">
         <f>IF($E15&gt;0,BK14-$E$5,"")</f>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="BQ16" s="13">
         <f>IF(BM16&lt;$E$4-1,BM16+1,IF(BL16&lt;$E$5-1,IF($E15&gt;0,BK16-$E$5+1,""),""))</f>
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="BR16" s="33">
         <f>BS16+$E$5*$E15</f>
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="BS16" s="31">
         <f t="shared" si="27"/>
@@ -7479,11 +5047,11 @@
       </c>
       <c r="BV16" s="16">
         <f>IF(BT16&gt;0,BT16-1,IF(BS16&gt;0,IF($E15&gt;0,BR16-$E$5-1,""),""))</f>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="BW16" s="17">
         <f>IF($E15&gt;0,BR14-$E$5,"")</f>
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="BX16" s="13">
         <f>IF(BT16&lt;$E$4-1,BT16+1,IF(BS16&lt;$E$5-1,IF($E15&gt;0,BR16-$E$5+1,""),""))</f>
@@ -7491,7 +5059,7 @@
       </c>
       <c r="BY16" s="33">
         <f>BZ16+$E$5*$E15</f>
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="BZ16" s="31">
         <f t="shared" si="30"/>
@@ -7511,7 +5079,7 @@
       </c>
       <c r="CD16" s="17">
         <f>IF($E15&gt;0,BY14-$E$5,"")</f>
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="CE16" s="13">
         <f>IF(CA16&lt;$E$4-1,CA16+1,IF(BZ16&lt;$E$5-1,IF($E15&gt;0,BY16-$E$5+1,""),""))</f>
@@ -7519,7 +5087,7 @@
       </c>
       <c r="CF16" s="33">
         <f>CG16+$E$5*$E15</f>
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="CG16" s="31">
         <f t="shared" si="33"/>
@@ -7539,7 +5107,7 @@
       </c>
       <c r="CK16" s="17">
         <f>IF($E15&gt;0,CF14-$E$5,"")</f>
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="CL16" s="13" t="str">
         <f>IF(CH16&lt;$E$4-1,CH16+1,IF(CG16&lt;$E$5-1,IF($E15&gt;0,CF16-$E$5+1,""),""))</f>
@@ -7550,7 +5118,7 @@
       <c r="F17" s="34"/>
       <c r="G17" s="18">
         <f>H17+$E$5*$E18</f>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H17" s="29">
         <f t="shared" si="0"/>
@@ -7570,7 +5138,7 @@
       </c>
       <c r="L17" s="24">
         <f>IF($E18&lt;NY-1,G17+$E$5,"")</f>
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="M17" s="12">
         <f>IF(I17&lt;$E$4-1,I17+1,IF(H17&lt;$E$5-1,IF($E18&lt;NY-1,G17+$E$5+1,""),""))</f>
@@ -7578,7 +5146,7 @@
       </c>
       <c r="N17" s="18">
         <f>O17+$E$5*$E18</f>
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="O17" s="29">
         <f t="shared" si="3"/>
@@ -7598,7 +5166,7 @@
       </c>
       <c r="S17" s="24">
         <f>IF($E18&lt;NY-1,N17+$E$5,"")</f>
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="T17" s="12">
         <f>IF(P17&lt;$E$4-1,P17+1,IF(O17&lt;$E$5-1,IF($E18&lt;NY-1,N17+$E$5+1,""),""))</f>
@@ -7606,7 +5174,7 @@
       </c>
       <c r="U17" s="18">
         <f>V17+$E$5*$E18</f>
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="V17" s="29">
         <f t="shared" si="6"/>
@@ -7626,15 +5194,15 @@
       </c>
       <c r="Z17" s="24">
         <f>IF($E18&lt;NY-1,U17+$E$5,"")</f>
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="AA17" s="12">
         <f>IF(W17&lt;$E$4-1,W17+1,IF(V17&lt;$E$5-1,IF($E18&lt;NY-1,U17+$E$5+1,""),""))</f>
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="AB17" s="18">
         <f>AC17+$E$5*$E18</f>
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="AC17" s="29">
         <f t="shared" si="9"/>
@@ -7650,11 +5218,11 @@
       </c>
       <c r="AF17" s="15">
         <f>IF(AD17&gt;0,AD17-1,IF(AC17&gt;0,IF($E18&lt;NY-1,AB17+$E$5-1,""),""))</f>
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="AG17" s="24">
         <f>IF($E18&lt;NY-1,AB17+$E$5,"")</f>
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="AH17" s="12">
         <f>IF(AD17&lt;$E$4-1,AD17+1,IF(AC17&lt;$E$5-1,IF($E18&lt;NY-1,AB17+$E$5+1,""),""))</f>
@@ -7662,7 +5230,7 @@
       </c>
       <c r="AI17" s="18">
         <f>AJ17+$E$5*$E18</f>
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="AJ17" s="29">
         <f t="shared" si="12"/>
@@ -7682,7 +5250,7 @@
       </c>
       <c r="AN17" s="24">
         <f>IF($E18&lt;NY-1,AI17+$E$5,"")</f>
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="AO17" s="12">
         <f>IF(AK17&lt;$E$4-1,AK17+1,IF(AJ17&lt;$E$5-1,IF($E18&lt;NY-1,AI17+$E$5+1,""),""))</f>
@@ -7690,7 +5258,7 @@
       </c>
       <c r="AP17" s="18">
         <f>AQ17+$E$5*$E18</f>
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AQ17" s="29">
         <f t="shared" si="15"/>
@@ -7710,15 +5278,15 @@
       </c>
       <c r="AU17" s="24">
         <f>IF($E18&lt;NY-1,AP17+$E$5,"")</f>
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AV17" s="12">
         <f>IF(AR17&lt;$E$4-1,AR17+1,IF(AQ17&lt;$E$5-1,IF($E18&lt;NY-1,AP17+$E$5+1,""),""))</f>
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="AW17" s="18">
         <f>AX17+$E$5*$E18</f>
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="AX17" s="29">
         <f t="shared" si="18"/>
@@ -7734,11 +5302,11 @@
       </c>
       <c r="BA17" s="15">
         <f>IF(AY17&gt;0,AY17-1,IF(AX17&gt;0,IF($E18&lt;NY-1,AW17+$E$5-1,""),""))</f>
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="BB17" s="24">
         <f>IF($E18&lt;NY-1,AW17+$E$5,"")</f>
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="BC17" s="12">
         <f>IF(AY17&lt;$E$4-1,AY17+1,IF(AX17&lt;$E$5-1,IF($E18&lt;NY-1,AW17+$E$5+1,""),""))</f>
@@ -7746,7 +5314,7 @@
       </c>
       <c r="BD17" s="18">
         <f>BE17+$E$5*$E18</f>
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="BE17" s="29">
         <f t="shared" si="21"/>
@@ -7766,7 +5334,7 @@
       </c>
       <c r="BI17" s="24">
         <f>IF($E18&lt;NY-1,BD17+$E$5,"")</f>
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="BJ17" s="12">
         <f>IF(BF17&lt;$E$4-1,BF17+1,IF(BE17&lt;$E$5-1,IF($E18&lt;NY-1,BD17+$E$5+1,""),""))</f>
@@ -7774,7 +5342,7 @@
       </c>
       <c r="BK17" s="18">
         <f>BL17+$E$5*$E18</f>
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="BL17" s="29">
         <f t="shared" si="24"/>
@@ -7794,15 +5362,15 @@
       </c>
       <c r="BP17" s="24">
         <f>IF($E18&lt;NY-1,BK17+$E$5,"")</f>
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="BQ17" s="12">
         <f>IF(BM17&lt;$E$4-1,BM17+1,IF(BL17&lt;$E$5-1,IF($E18&lt;NY-1,BK17+$E$5+1,""),""))</f>
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="BR17" s="18">
         <f>BS17+$E$5*$E18</f>
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="BS17" s="29">
         <f t="shared" si="27"/>
@@ -7818,11 +5386,11 @@
       </c>
       <c r="BV17" s="15">
         <f>IF(BT17&gt;0,BT17-1,IF(BS17&gt;0,IF($E18&lt;NY-1,BR17+$E$5-1,""),""))</f>
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="BW17" s="24">
         <f>IF($E18&lt;NY-1,BR17+$E$5,"")</f>
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="BX17" s="12">
         <f>IF(BT17&lt;$E$4-1,BT17+1,IF(BS17&lt;$E$5-1,IF($E18&lt;NY-1,BR17+$E$5+1,""),""))</f>
@@ -7830,7 +5398,7 @@
       </c>
       <c r="BY17" s="18">
         <f>BZ17+$E$5*$E18</f>
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="BZ17" s="29">
         <f t="shared" si="30"/>
@@ -7850,7 +5418,7 @@
       </c>
       <c r="CD17" s="24">
         <f>IF($E18&lt;NY-1,BY17+$E$5,"")</f>
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="CE17" s="12">
         <f>IF(CA17&lt;$E$4-1,CA17+1,IF(BZ17&lt;$E$5-1,IF($E18&lt;NY-1,BY17+$E$5+1,""),""))</f>
@@ -7858,7 +5426,7 @@
       </c>
       <c r="CF17" s="18">
         <f>CG17+$E$5*$E18</f>
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="CG17" s="29">
         <f t="shared" si="33"/>
@@ -7878,7 +5446,7 @@
       </c>
       <c r="CK17" s="24">
         <f>IF($E18&lt;NY-1,CF17+$E$5,"")</f>
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="CL17" s="12" t="str">
         <f>IF(CH17&lt;$E$4-1,CH17+1,IF(CG17&lt;$E$5-1,IF($E18&lt;NY-1,CF17+$E$5+1,""),""))</f>
@@ -7887,12 +5455,12 @@
     </row>
     <row r="18" spans="5:90" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E18" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" s="34"/>
       <c r="G18" s="32">
         <f>H18+$E$5*$E18</f>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H18" s="30">
         <f t="shared" si="0"/>
@@ -7912,7 +5480,7 @@
       </c>
       <c r="L18" s="42">
         <f>G18</f>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M18" s="6">
         <f>IF(I18&lt;$E$4-1,I18+1,IF(H18&lt;$E$5-1,G18+1,""))</f>
@@ -7920,7 +5488,7 @@
       </c>
       <c r="N18" s="32">
         <f>O18+$E$5*$E18</f>
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="O18" s="30">
         <f t="shared" si="3"/>
@@ -7940,7 +5508,7 @@
       </c>
       <c r="S18" s="42">
         <f>N18</f>
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="T18" s="6">
         <f>IF(P18&lt;$E$4-1,P18+1,IF(O18&lt;$E$5-1,N18+1,""))</f>
@@ -7948,7 +5516,7 @@
       </c>
       <c r="U18" s="32">
         <f>V18+$E$5*$E18</f>
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="V18" s="30">
         <f t="shared" si="6"/>
@@ -7968,15 +5536,15 @@
       </c>
       <c r="Z18" s="42">
         <f>U18</f>
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="AA18" s="6">
         <f>IF(W18&lt;$E$4-1,W18+1,IF(V18&lt;$E$5-1,U18+1,""))</f>
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="AB18" s="32">
         <f>AC18+$E$5*$E18</f>
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="AC18" s="30">
         <f t="shared" si="9"/>
@@ -7992,11 +5560,11 @@
       </c>
       <c r="AF18" s="11">
         <f>IF(AD18&gt;0,AD18-1,IF(AC18&gt;0,AB18-1,""))</f>
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="AG18" s="42">
         <f>AB18</f>
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="AH18" s="6">
         <f>IF(AD18&lt;$E$4-1,AD18+1,IF(AC18&lt;$E$5-1,AB18+1,""))</f>
@@ -8004,7 +5572,7 @@
       </c>
       <c r="AI18" s="32">
         <f>AJ18+$E$5*$E18</f>
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="AJ18" s="30">
         <f t="shared" si="12"/>
@@ -8024,7 +5592,7 @@
       </c>
       <c r="AN18" s="42">
         <f>AI18</f>
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="AO18" s="6">
         <f>IF(AK18&lt;$E$4-1,AK18+1,IF(AJ18&lt;$E$5-1,AI18+1,""))</f>
@@ -8032,7 +5600,7 @@
       </c>
       <c r="AP18" s="32">
         <f>AQ18+$E$5*$E18</f>
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AQ18" s="30">
         <f t="shared" si="15"/>
@@ -8052,15 +5620,15 @@
       </c>
       <c r="AU18" s="42">
         <f>AP18</f>
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AV18" s="6">
         <f>IF(AR18&lt;$E$4-1,AR18+1,IF(AQ18&lt;$E$5-1,AP18+1,""))</f>
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="AW18" s="32">
         <f>AX18+$E$5*$E18</f>
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="AX18" s="30">
         <f t="shared" si="18"/>
@@ -8076,11 +5644,11 @@
       </c>
       <c r="BA18" s="11">
         <f>IF(AY18&gt;0,AY18-1,IF(AX18&gt;0,AW18-1,""))</f>
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="BB18" s="42">
         <f>AW18</f>
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="BC18" s="6">
         <f>IF(AY18&lt;$E$4-1,AY18+1,IF(AX18&lt;$E$5-1,AW18+1,""))</f>
@@ -8088,7 +5656,7 @@
       </c>
       <c r="BD18" s="32">
         <f>BE18+$E$5*$E18</f>
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="BE18" s="30">
         <f t="shared" si="21"/>
@@ -8108,7 +5676,7 @@
       </c>
       <c r="BI18" s="42">
         <f>BD18</f>
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="BJ18" s="6">
         <f>IF(BF18&lt;$E$4-1,BF18+1,IF(BE18&lt;$E$5-1,BD18+1,""))</f>
@@ -8116,7 +5684,7 @@
       </c>
       <c r="BK18" s="32">
         <f>BL18+$E$5*$E18</f>
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="BL18" s="30">
         <f t="shared" si="24"/>
@@ -8136,15 +5704,15 @@
       </c>
       <c r="BP18" s="42">
         <f>BK18</f>
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="BQ18" s="6">
         <f>IF(BM18&lt;$E$4-1,BM18+1,IF(BL18&lt;$E$5-1,BK18+1,""))</f>
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="BR18" s="32">
         <f>BS18+$E$5*$E18</f>
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="BS18" s="30">
         <f t="shared" si="27"/>
@@ -8160,11 +5728,11 @@
       </c>
       <c r="BV18" s="11">
         <f>IF(BT18&gt;0,BT18-1,IF(BS18&gt;0,BR18-1,""))</f>
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="BW18" s="42">
         <f>BR18</f>
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="BX18" s="6">
         <f>IF(BT18&lt;$E$4-1,BT18+1,IF(BS18&lt;$E$5-1,BR18+1,""))</f>
@@ -8172,7 +5740,7 @@
       </c>
       <c r="BY18" s="32">
         <f>BZ18+$E$5*$E18</f>
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="BZ18" s="30">
         <f t="shared" si="30"/>
@@ -8192,7 +5760,7 @@
       </c>
       <c r="CD18" s="42">
         <f>BY18</f>
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="CE18" s="6">
         <f>IF(CA18&lt;$E$4-1,CA18+1,IF(BZ18&lt;$E$5-1,BY18+1,""))</f>
@@ -8200,7 +5768,7 @@
       </c>
       <c r="CF18" s="32">
         <f>CG18+$E$5*$E18</f>
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="CG18" s="30">
         <f t="shared" si="33"/>
@@ -8220,7 +5788,7 @@
       </c>
       <c r="CK18" s="42">
         <f>CF18</f>
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="CL18" s="6" t="str">
         <f>IF(CH18&lt;$E$4-1,CH18+1,IF(CG18&lt;$E$5-1,CF18+1,""))</f>
@@ -8231,7 +5799,7 @@
       <c r="F19" s="34"/>
       <c r="G19" s="33">
         <f>H19+$E$5*$E18</f>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H19" s="31">
         <f t="shared" si="0"/>
@@ -8251,7 +5819,7 @@
       </c>
       <c r="L19" s="17">
         <f>IF($E18&gt;0,G17-$E$5,"")</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M19" s="13">
         <f>IF(I19&lt;$E$4-1,I19+1,IF(H19&lt;$E$5-1,IF($E18&gt;0,G19-$E$5+1,""),""))</f>
@@ -8259,7 +5827,7 @@
       </c>
       <c r="N19" s="33">
         <f>O19+$E$5*$E18</f>
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="O19" s="31">
         <f t="shared" si="3"/>
@@ -8279,7 +5847,7 @@
       </c>
       <c r="S19" s="17">
         <f>IF($E18&gt;0,N17-$E$5,"")</f>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="T19" s="13">
         <f>IF(P19&lt;$E$4-1,P19+1,IF(O19&lt;$E$5-1,IF($E18&gt;0,N19-$E$5+1,""),""))</f>
@@ -8287,7 +5855,7 @@
       </c>
       <c r="U19" s="33">
         <f>V19+$E$5*$E18</f>
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="V19" s="31">
         <f t="shared" si="6"/>
@@ -8307,15 +5875,15 @@
       </c>
       <c r="Z19" s="17">
         <f>IF($E18&gt;0,U17-$E$5,"")</f>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="AA19" s="13">
         <f>IF(W19&lt;$E$4-1,W19+1,IF(V19&lt;$E$5-1,IF($E18&gt;0,U19-$E$5+1,""),""))</f>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="AB19" s="33">
         <f>AC19+$E$5*$E18</f>
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="AC19" s="31">
         <f t="shared" si="9"/>
@@ -8331,11 +5899,11 @@
       </c>
       <c r="AF19" s="16">
         <f>IF(AD19&gt;0,AD19-1,IF(AC19&gt;0,IF($E18&gt;0,AB19-$E$5-1,""),""))</f>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="AG19" s="17">
         <f>IF($E18&gt;0,AB17-$E$5,"")</f>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="AH19" s="13">
         <f>IF(AD19&lt;$E$4-1,AD19+1,IF(AC19&lt;$E$5-1,IF($E18&gt;0,AB19-$E$5+1,""),""))</f>
@@ -8343,7 +5911,7 @@
       </c>
       <c r="AI19" s="33">
         <f>AJ19+$E$5*$E18</f>
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="AJ19" s="31">
         <f t="shared" si="12"/>
@@ -8363,7 +5931,7 @@
       </c>
       <c r="AN19" s="17">
         <f>IF($E18&gt;0,AI17-$E$5,"")</f>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AO19" s="13">
         <f>IF(AK19&lt;$E$4-1,AK19+1,IF(AJ19&lt;$E$5-1,IF($E18&gt;0,AI19-$E$5+1,""),""))</f>
@@ -8371,7 +5939,7 @@
       </c>
       <c r="AP19" s="33">
         <f>AQ19+$E$5*$E18</f>
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AQ19" s="31">
         <f t="shared" si="15"/>
@@ -8391,15 +5959,15 @@
       </c>
       <c r="AU19" s="17">
         <f>IF($E18&gt;0,AP17-$E$5,"")</f>
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="AV19" s="13">
         <f>IF(AR19&lt;$E$4-1,AR19+1,IF(AQ19&lt;$E$5-1,IF($E18&gt;0,AP19-$E$5+1,""),""))</f>
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="AW19" s="33">
         <f>AX19+$E$5*$E18</f>
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="AX19" s="31">
         <f t="shared" si="18"/>
@@ -8415,11 +5983,11 @@
       </c>
       <c r="BA19" s="16">
         <f>IF(AY19&gt;0,AY19-1,IF(AX19&gt;0,IF($E18&gt;0,AW19-$E$5-1,""),""))</f>
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="BB19" s="17">
         <f>IF($E18&gt;0,AW17-$E$5,"")</f>
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="BC19" s="13">
         <f>IF(AY19&lt;$E$4-1,AY19+1,IF(AX19&lt;$E$5-1,IF($E18&gt;0,AW19-$E$5+1,""),""))</f>
@@ -8427,7 +5995,7 @@
       </c>
       <c r="BD19" s="33">
         <f>BE19+$E$5*$E18</f>
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="BE19" s="31">
         <f t="shared" si="21"/>
@@ -8447,7 +6015,7 @@
       </c>
       <c r="BI19" s="17">
         <f>IF($E18&gt;0,BD17-$E$5,"")</f>
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="BJ19" s="13">
         <f>IF(BF19&lt;$E$4-1,BF19+1,IF(BE19&lt;$E$5-1,IF($E18&gt;0,BD19-$E$5+1,""),""))</f>
@@ -8455,7 +6023,7 @@
       </c>
       <c r="BK19" s="33">
         <f>BL19+$E$5*$E18</f>
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="BL19" s="31">
         <f t="shared" si="24"/>
@@ -8475,15 +6043,15 @@
       </c>
       <c r="BP19" s="17">
         <f>IF($E18&gt;0,BK17-$E$5,"")</f>
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="BQ19" s="13">
         <f>IF(BM19&lt;$E$4-1,BM19+1,IF(BL19&lt;$E$5-1,IF($E18&gt;0,BK19-$E$5+1,""),""))</f>
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="BR19" s="33">
         <f>BS19+$E$5*$E18</f>
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="BS19" s="31">
         <f t="shared" si="27"/>
@@ -8499,11 +6067,11 @@
       </c>
       <c r="BV19" s="16">
         <f>IF(BT19&gt;0,BT19-1,IF(BS19&gt;0,IF($E18&gt;0,BR19-$E$5-1,""),""))</f>
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="BW19" s="17">
         <f>IF($E18&gt;0,BR17-$E$5,"")</f>
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="BX19" s="13">
         <f>IF(BT19&lt;$E$4-1,BT19+1,IF(BS19&lt;$E$5-1,IF($E18&gt;0,BR19-$E$5+1,""),""))</f>
@@ -8511,7 +6079,7 @@
       </c>
       <c r="BY19" s="33">
         <f>BZ19+$E$5*$E18</f>
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="BZ19" s="31">
         <f t="shared" si="30"/>
@@ -8531,7 +6099,7 @@
       </c>
       <c r="CD19" s="17">
         <f>IF($E18&gt;0,BY17-$E$5,"")</f>
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="CE19" s="13">
         <f>IF(CA19&lt;$E$4-1,CA19+1,IF(BZ19&lt;$E$5-1,IF($E18&gt;0,BY19-$E$5+1,""),""))</f>
@@ -8539,7 +6107,7 @@
       </c>
       <c r="CF19" s="33">
         <f>CG19+$E$5*$E18</f>
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="CG19" s="31">
         <f t="shared" si="33"/>
@@ -8559,7 +6127,7 @@
       </c>
       <c r="CK19" s="17">
         <f>IF($E18&gt;0,CF17-$E$5,"")</f>
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="CL19" s="13" t="str">
         <f>IF(CH19&lt;$E$4-1,CH19+1,IF(CG19&lt;$E$5-1,IF($E18&gt;0,CF19-$E$5+1,""),""))</f>
@@ -8570,7 +6138,7 @@
       <c r="F20" s="34"/>
       <c r="G20" s="18">
         <f>H20+$E$5*$E21</f>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="H20" s="29">
         <f t="shared" si="0"/>
@@ -8590,7 +6158,7 @@
       </c>
       <c r="L20" s="24">
         <f>IF($E21&lt;NY-1,G20+$E$5,"")</f>
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="M20" s="12">
         <f>IF(I20&lt;$E$4-1,I20+1,IF(H20&lt;$E$5-1,IF($E21&lt;NY-1,G20+$E$5+1,""),""))</f>
@@ -8598,7 +6166,7 @@
       </c>
       <c r="N20" s="18">
         <f>O20+$E$5*$E21</f>
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="O20" s="29">
         <f t="shared" si="3"/>
@@ -8618,7 +6186,7 @@
       </c>
       <c r="S20" s="24">
         <f>IF($E21&lt;NY-1,N20+$E$5,"")</f>
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="T20" s="12">
         <f>IF(P20&lt;$E$4-1,P20+1,IF(O20&lt;$E$5-1,IF($E21&lt;NY-1,N20+$E$5+1,""),""))</f>
@@ -8626,7 +6194,7 @@
       </c>
       <c r="U20" s="18">
         <f>V20+$E$5*$E21</f>
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="V20" s="29">
         <f t="shared" si="6"/>
@@ -8646,15 +6214,15 @@
       </c>
       <c r="Z20" s="24">
         <f>IF($E21&lt;NY-1,U20+$E$5,"")</f>
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="AA20" s="12">
         <f>IF(W20&lt;$E$4-1,W20+1,IF(V20&lt;$E$5-1,IF($E21&lt;NY-1,U20+$E$5+1,""),""))</f>
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="AB20" s="18">
         <f>AC20+$E$5*$E21</f>
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="AC20" s="29">
         <f t="shared" si="9"/>
@@ -8670,11 +6238,11 @@
       </c>
       <c r="AF20" s="15">
         <f>IF(AD20&gt;0,AD20-1,IF(AC20&gt;0,IF($E21&lt;NY-1,AB20+$E$5-1,""),""))</f>
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="AG20" s="24">
         <f>IF($E21&lt;NY-1,AB20+$E$5,"")</f>
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="AH20" s="12">
         <f>IF(AD20&lt;$E$4-1,AD20+1,IF(AC20&lt;$E$5-1,IF($E21&lt;NY-1,AB20+$E$5+1,""),""))</f>
@@ -8682,7 +6250,7 @@
       </c>
       <c r="AI20" s="18">
         <f>AJ20+$E$5*$E21</f>
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="AJ20" s="29">
         <f t="shared" si="12"/>
@@ -8702,7 +6270,7 @@
       </c>
       <c r="AN20" s="24">
         <f>IF($E21&lt;NY-1,AI20+$E$5,"")</f>
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="AO20" s="12">
         <f>IF(AK20&lt;$E$4-1,AK20+1,IF(AJ20&lt;$E$5-1,IF($E21&lt;NY-1,AI20+$E$5+1,""),""))</f>
@@ -8710,7 +6278,7 @@
       </c>
       <c r="AP20" s="18">
         <f>AQ20+$E$5*$E21</f>
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="AQ20" s="29">
         <f t="shared" si="15"/>
@@ -8730,15 +6298,15 @@
       </c>
       <c r="AU20" s="24">
         <f>IF($E21&lt;NY-1,AP20+$E$5,"")</f>
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="AV20" s="12">
         <f>IF(AR20&lt;$E$4-1,AR20+1,IF(AQ20&lt;$E$5-1,IF($E21&lt;NY-1,AP20+$E$5+1,""),""))</f>
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="AW20" s="18">
         <f>AX20+$E$5*$E21</f>
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="AX20" s="29">
         <f t="shared" si="18"/>
@@ -8754,11 +6322,11 @@
       </c>
       <c r="BA20" s="15">
         <f>IF(AY20&gt;0,AY20-1,IF(AX20&gt;0,IF($E21&lt;NY-1,AW20+$E$5-1,""),""))</f>
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="BB20" s="24">
         <f>IF($E21&lt;NY-1,AW20+$E$5,"")</f>
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="BC20" s="12">
         <f>IF(AY20&lt;$E$4-1,AY20+1,IF(AX20&lt;$E$5-1,IF($E21&lt;NY-1,AW20+$E$5+1,""),""))</f>
@@ -8766,7 +6334,7 @@
       </c>
       <c r="BD20" s="18">
         <f>BE20+$E$5*$E21</f>
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="BE20" s="29">
         <f t="shared" si="21"/>
@@ -8786,7 +6354,7 @@
       </c>
       <c r="BI20" s="24">
         <f>IF($E21&lt;NY-1,BD20+$E$5,"")</f>
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="BJ20" s="12">
         <f>IF(BF20&lt;$E$4-1,BF20+1,IF(BE20&lt;$E$5-1,IF($E21&lt;NY-1,BD20+$E$5+1,""),""))</f>
@@ -8794,7 +6362,7 @@
       </c>
       <c r="BK20" s="18">
         <f>BL20+$E$5*$E21</f>
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="BL20" s="29">
         <f t="shared" si="24"/>
@@ -8814,15 +6382,15 @@
       </c>
       <c r="BP20" s="24">
         <f>IF($E21&lt;NY-1,BK20+$E$5,"")</f>
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="BQ20" s="12">
         <f>IF(BM20&lt;$E$4-1,BM20+1,IF(BL20&lt;$E$5-1,IF($E21&lt;NY-1,BK20+$E$5+1,""),""))</f>
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="BR20" s="18">
         <f>BS20+$E$5*$E21</f>
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="BS20" s="29">
         <f t="shared" si="27"/>
@@ -8838,11 +6406,11 @@
       </c>
       <c r="BV20" s="15">
         <f>IF(BT20&gt;0,BT20-1,IF(BS20&gt;0,IF($E21&lt;NY-1,BR20+$E$5-1,""),""))</f>
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="BW20" s="24">
         <f>IF($E21&lt;NY-1,BR20+$E$5,"")</f>
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="BX20" s="12">
         <f>IF(BT20&lt;$E$4-1,BT20+1,IF(BS20&lt;$E$5-1,IF($E21&lt;NY-1,BR20+$E$5+1,""),""))</f>
@@ -8850,7 +6418,7 @@
       </c>
       <c r="BY20" s="18">
         <f>BZ20+$E$5*$E21</f>
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="BZ20" s="29">
         <f t="shared" si="30"/>
@@ -8870,7 +6438,7 @@
       </c>
       <c r="CD20" s="24">
         <f>IF($E21&lt;NY-1,BY20+$E$5,"")</f>
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="CE20" s="12">
         <f>IF(CA20&lt;$E$4-1,CA20+1,IF(BZ20&lt;$E$5-1,IF($E21&lt;NY-1,BY20+$E$5+1,""),""))</f>
@@ -8878,7 +6446,7 @@
       </c>
       <c r="CF20" s="18">
         <f>CG20+$E$5*$E21</f>
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="CG20" s="29">
         <f t="shared" si="33"/>
@@ -8898,7 +6466,7 @@
       </c>
       <c r="CK20" s="24">
         <f>IF($E21&lt;NY-1,CF20+$E$5,"")</f>
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="CL20" s="12" t="str">
         <f>IF(CH20&lt;$E$4-1,CH20+1,IF(CG20&lt;$E$5-1,IF($E21&lt;NY-1,CF20+$E$5+1,""),""))</f>
@@ -8907,12 +6475,12 @@
     </row>
     <row r="21" spans="5:90" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E21" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F21" s="34"/>
       <c r="G21" s="32">
         <f>H21+$E$5*$E21</f>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="H21" s="30">
         <f t="shared" si="0"/>
@@ -8932,7 +6500,7 @@
       </c>
       <c r="L21" s="42">
         <f>G21</f>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="M21" s="6">
         <f>IF(I21&lt;$E$4-1,I21+1,IF(H21&lt;$E$5-1,G21+1,""))</f>
@@ -8940,7 +6508,7 @@
       </c>
       <c r="N21" s="32">
         <f>O21+$E$5*$E21</f>
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="O21" s="30">
         <f t="shared" si="3"/>
@@ -8960,7 +6528,7 @@
       </c>
       <c r="S21" s="42">
         <f>N21</f>
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="T21" s="6">
         <f>IF(P21&lt;$E$4-1,P21+1,IF(O21&lt;$E$5-1,N21+1,""))</f>
@@ -8968,7 +6536,7 @@
       </c>
       <c r="U21" s="32">
         <f>V21+$E$5*$E21</f>
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="V21" s="30">
         <f t="shared" si="6"/>
@@ -8988,15 +6556,15 @@
       </c>
       <c r="Z21" s="42">
         <f>U21</f>
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="AA21" s="6">
         <f>IF(W21&lt;$E$4-1,W21+1,IF(V21&lt;$E$5-1,U21+1,""))</f>
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="AB21" s="32">
         <f>AC21+$E$5*$E21</f>
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="AC21" s="30">
         <f t="shared" si="9"/>
@@ -9012,11 +6580,11 @@
       </c>
       <c r="AF21" s="11">
         <f>IF(AD21&gt;0,AD21-1,IF(AC21&gt;0,AB21-1,""))</f>
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="AG21" s="42">
         <f>AB21</f>
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="AH21" s="6">
         <f>IF(AD21&lt;$E$4-1,AD21+1,IF(AC21&lt;$E$5-1,AB21+1,""))</f>
@@ -9024,7 +6592,7 @@
       </c>
       <c r="AI21" s="32">
         <f>AJ21+$E$5*$E21</f>
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="AJ21" s="30">
         <f t="shared" si="12"/>
@@ -9044,7 +6612,7 @@
       </c>
       <c r="AN21" s="42">
         <f>AI21</f>
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="AO21" s="6">
         <f>IF(AK21&lt;$E$4-1,AK21+1,IF(AJ21&lt;$E$5-1,AI21+1,""))</f>
@@ -9052,7 +6620,7 @@
       </c>
       <c r="AP21" s="32">
         <f>AQ21+$E$5*$E21</f>
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="AQ21" s="30">
         <f t="shared" si="15"/>
@@ -9072,15 +6640,15 @@
       </c>
       <c r="AU21" s="42">
         <f>AP21</f>
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="AV21" s="6">
         <f>IF(AR21&lt;$E$4-1,AR21+1,IF(AQ21&lt;$E$5-1,AP21+1,""))</f>
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="AW21" s="32">
         <f>AX21+$E$5*$E21</f>
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="AX21" s="30">
         <f t="shared" si="18"/>
@@ -9096,11 +6664,11 @@
       </c>
       <c r="BA21" s="11">
         <f>IF(AY21&gt;0,AY21-1,IF(AX21&gt;0,AW21-1,""))</f>
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="BB21" s="42">
         <f>AW21</f>
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="BC21" s="6">
         <f>IF(AY21&lt;$E$4-1,AY21+1,IF(AX21&lt;$E$5-1,AW21+1,""))</f>
@@ -9108,7 +6676,7 @@
       </c>
       <c r="BD21" s="32">
         <f>BE21+$E$5*$E21</f>
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="BE21" s="30">
         <f t="shared" si="21"/>
@@ -9128,7 +6696,7 @@
       </c>
       <c r="BI21" s="42">
         <f>BD21</f>
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="BJ21" s="6">
         <f>IF(BF21&lt;$E$4-1,BF21+1,IF(BE21&lt;$E$5-1,BD21+1,""))</f>
@@ -9136,7 +6704,7 @@
       </c>
       <c r="BK21" s="32">
         <f>BL21+$E$5*$E21</f>
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="BL21" s="30">
         <f t="shared" si="24"/>
@@ -9156,15 +6724,15 @@
       </c>
       <c r="BP21" s="42">
         <f>BK21</f>
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="BQ21" s="6">
         <f>IF(BM21&lt;$E$4-1,BM21+1,IF(BL21&lt;$E$5-1,BK21+1,""))</f>
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="BR21" s="32">
         <f>BS21+$E$5*$E21</f>
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="BS21" s="30">
         <f t="shared" si="27"/>
@@ -9180,11 +6748,11 @@
       </c>
       <c r="BV21" s="11">
         <f>IF(BT21&gt;0,BT21-1,IF(BS21&gt;0,BR21-1,""))</f>
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="BW21" s="42">
         <f>BR21</f>
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="BX21" s="6">
         <f>IF(BT21&lt;$E$4-1,BT21+1,IF(BS21&lt;$E$5-1,BR21+1,""))</f>
@@ -9192,7 +6760,7 @@
       </c>
       <c r="BY21" s="32">
         <f>BZ21+$E$5*$E21</f>
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="BZ21" s="30">
         <f t="shared" si="30"/>
@@ -9212,7 +6780,7 @@
       </c>
       <c r="CD21" s="42">
         <f>BY21</f>
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="CE21" s="6">
         <f>IF(CA21&lt;$E$4-1,CA21+1,IF(BZ21&lt;$E$5-1,BY21+1,""))</f>
@@ -9220,7 +6788,7 @@
       </c>
       <c r="CF21" s="32">
         <f>CG21+$E$5*$E21</f>
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="CG21" s="30">
         <f t="shared" si="33"/>
@@ -9240,7 +6808,7 @@
       </c>
       <c r="CK21" s="42">
         <f>CF21</f>
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="CL21" s="6" t="str">
         <f>IF(CH21&lt;$E$4-1,CH21+1,IF(CG21&lt;$E$5-1,CF21+1,""))</f>
@@ -9251,7 +6819,7 @@
       <c r="F22" s="34"/>
       <c r="G22" s="33">
         <f>H22+$E$5*$E21</f>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="H22" s="31">
         <f t="shared" si="0"/>
@@ -9269,9 +6837,9 @@
         <f>IF(I22&gt;0,I22-1,IF(H22&gt;0,IF($E21&gt;0,G22-$E$5-1,""),""))</f>
         <v/>
       </c>
-      <c r="L22" s="17">
+      <c r="L22" s="17" t="str">
         <f>IF($E21&gt;0,G20-$E$5,"")</f>
-        <v>24</v>
+        <v/>
       </c>
       <c r="M22" s="13">
         <f>IF(I22&lt;$E$4-1,I22+1,IF(H22&lt;$E$5-1,IF($E21&gt;0,G22-$E$5+1,""),""))</f>
@@ -9279,7 +6847,7 @@
       </c>
       <c r="N22" s="33">
         <f>O22+$E$5*$E21</f>
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="O22" s="31">
         <f t="shared" si="3"/>
@@ -9297,9 +6865,9 @@
         <f>IF(P22&gt;0,P22-1,IF(O22&gt;0,IF($E21&gt;0,N22-$E$5-1,""),""))</f>
         <v>0</v>
       </c>
-      <c r="S22" s="17">
+      <c r="S22" s="17" t="str">
         <f>IF($E21&gt;0,N20-$E$5,"")</f>
-        <v>25</v>
+        <v/>
       </c>
       <c r="T22" s="13">
         <f>IF(P22&lt;$E$4-1,P22+1,IF(O22&lt;$E$5-1,IF($E21&gt;0,N22-$E$5+1,""),""))</f>
@@ -9307,7 +6875,7 @@
       </c>
       <c r="U22" s="33">
         <f>V22+$E$5*$E21</f>
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="V22" s="31">
         <f t="shared" si="6"/>
@@ -9325,17 +6893,17 @@
         <f>IF(W22&gt;0,W22-1,IF(V22&gt;0,IF($E21&gt;0,U22-$E$5-1,""),""))</f>
         <v>1</v>
       </c>
-      <c r="Z22" s="17">
+      <c r="Z22" s="17" t="str">
         <f>IF($E21&gt;0,U20-$E$5,"")</f>
-        <v>26</v>
-      </c>
-      <c r="AA22" s="13">
+        <v/>
+      </c>
+      <c r="AA22" s="13" t="str">
         <f>IF(W22&lt;$E$4-1,W22+1,IF(V22&lt;$E$5-1,IF($E21&gt;0,U22-$E$5+1,""),""))</f>
-        <v>27</v>
+        <v/>
       </c>
       <c r="AB22" s="33">
         <f>AC22+$E$5*$E21</f>
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="AC22" s="31">
         <f t="shared" si="9"/>
@@ -9349,13 +6917,13 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="AF22" s="16">
+      <c r="AF22" s="16" t="str">
         <f>IF(AD22&gt;0,AD22-1,IF(AC22&gt;0,IF($E21&gt;0,AB22-$E$5-1,""),""))</f>
-        <v>26</v>
-      </c>
-      <c r="AG22" s="17">
+        <v/>
+      </c>
+      <c r="AG22" s="17" t="str">
         <f>IF($E21&gt;0,AB20-$E$5,"")</f>
-        <v>27</v>
+        <v/>
       </c>
       <c r="AH22" s="13">
         <f>IF(AD22&lt;$E$4-1,AD22+1,IF(AC22&lt;$E$5-1,IF($E21&gt;0,AB22-$E$5+1,""),""))</f>
@@ -9363,7 +6931,7 @@
       </c>
       <c r="AI22" s="33">
         <f>AJ22+$E$5*$E21</f>
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="AJ22" s="31">
         <f t="shared" si="12"/>
@@ -9381,9 +6949,9 @@
         <f>IF(AK22&gt;0,AK22-1,IF(AJ22&gt;0,IF($E21&gt;0,AI22-$E$5-1,""),""))</f>
         <v>0</v>
       </c>
-      <c r="AN22" s="17">
+      <c r="AN22" s="17" t="str">
         <f>IF($E21&gt;0,AI20-$E$5,"")</f>
-        <v>28</v>
+        <v/>
       </c>
       <c r="AO22" s="13">
         <f>IF(AK22&lt;$E$4-1,AK22+1,IF(AJ22&lt;$E$5-1,IF($E21&gt;0,AI22-$E$5+1,""),""))</f>
@@ -9391,7 +6959,7 @@
       </c>
       <c r="AP22" s="33">
         <f>AQ22+$E$5*$E21</f>
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="AQ22" s="31">
         <f t="shared" si="15"/>
@@ -9409,17 +6977,17 @@
         <f>IF(AR22&gt;0,AR22-1,IF(AQ22&gt;0,IF($E21&gt;0,AP22-$E$5-1,""),""))</f>
         <v>1</v>
       </c>
-      <c r="AU22" s="17">
+      <c r="AU22" s="17" t="str">
         <f>IF($E21&gt;0,AP20-$E$5,"")</f>
-        <v>29</v>
-      </c>
-      <c r="AV22" s="13">
+        <v/>
+      </c>
+      <c r="AV22" s="13" t="str">
         <f>IF(AR22&lt;$E$4-1,AR22+1,IF(AQ22&lt;$E$5-1,IF($E21&gt;0,AP22-$E$5+1,""),""))</f>
-        <v>30</v>
+        <v/>
       </c>
       <c r="AW22" s="33">
         <f>AX22+$E$5*$E21</f>
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="AX22" s="31">
         <f t="shared" si="18"/>
@@ -9433,13 +7001,13 @@
         <f t="shared" si="20"/>
         <v>2</v>
       </c>
-      <c r="BA22" s="16">
+      <c r="BA22" s="16" t="str">
         <f>IF(AY22&gt;0,AY22-1,IF(AX22&gt;0,IF($E21&gt;0,AW22-$E$5-1,""),""))</f>
-        <v>29</v>
-      </c>
-      <c r="BB22" s="17">
+        <v/>
+      </c>
+      <c r="BB22" s="17" t="str">
         <f>IF($E21&gt;0,AW20-$E$5,"")</f>
-        <v>30</v>
+        <v/>
       </c>
       <c r="BC22" s="13">
         <f>IF(AY22&lt;$E$4-1,AY22+1,IF(AX22&lt;$E$5-1,IF($E21&gt;0,AW22-$E$5+1,""),""))</f>
@@ -9447,7 +7015,7 @@
       </c>
       <c r="BD22" s="33">
         <f>BE22+$E$5*$E21</f>
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="BE22" s="31">
         <f t="shared" si="21"/>
@@ -9465,9 +7033,9 @@
         <f>IF(BF22&gt;0,BF22-1,IF(BE22&gt;0,IF($E21&gt;0,BD22-$E$5-1,""),""))</f>
         <v>0</v>
       </c>
-      <c r="BI22" s="17">
+      <c r="BI22" s="17" t="str">
         <f>IF($E21&gt;0,BD20-$E$5,"")</f>
-        <v>31</v>
+        <v/>
       </c>
       <c r="BJ22" s="13">
         <f>IF(BF22&lt;$E$4-1,BF22+1,IF(BE22&lt;$E$5-1,IF($E21&gt;0,BD22-$E$5+1,""),""))</f>
@@ -9475,7 +7043,7 @@
       </c>
       <c r="BK22" s="33">
         <f>BL22+$E$5*$E21</f>
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="BL22" s="31">
         <f t="shared" si="24"/>
@@ -9493,17 +7061,17 @@
         <f>IF(BM22&gt;0,BM22-1,IF(BL22&gt;0,IF($E21&gt;0,BK22-$E$5-1,""),""))</f>
         <v>1</v>
       </c>
-      <c r="BP22" s="17">
+      <c r="BP22" s="17" t="str">
         <f>IF($E21&gt;0,BK20-$E$5,"")</f>
-        <v>32</v>
-      </c>
-      <c r="BQ22" s="13">
+        <v/>
+      </c>
+      <c r="BQ22" s="13" t="str">
         <f>IF(BM22&lt;$E$4-1,BM22+1,IF(BL22&lt;$E$5-1,IF($E21&gt;0,BK22-$E$5+1,""),""))</f>
-        <v>33</v>
+        <v/>
       </c>
       <c r="BR22" s="33">
         <f>BS22+$E$5*$E21</f>
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="BS22" s="31">
         <f t="shared" si="27"/>
@@ -9517,13 +7085,13 @@
         <f t="shared" si="29"/>
         <v>3</v>
       </c>
-      <c r="BV22" s="16">
+      <c r="BV22" s="16" t="str">
         <f>IF(BT22&gt;0,BT22-1,IF(BS22&gt;0,IF($E21&gt;0,BR22-$E$5-1,""),""))</f>
-        <v>32</v>
-      </c>
-      <c r="BW22" s="17">
+        <v/>
+      </c>
+      <c r="BW22" s="17" t="str">
         <f>IF($E21&gt;0,BR20-$E$5,"")</f>
-        <v>33</v>
+        <v/>
       </c>
       <c r="BX22" s="13">
         <f>IF(BT22&lt;$E$4-1,BT22+1,IF(BS22&lt;$E$5-1,IF($E21&gt;0,BR22-$E$5+1,""),""))</f>
@@ -9531,7 +7099,7 @@
       </c>
       <c r="BY22" s="33">
         <f>BZ22+$E$5*$E21</f>
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="BZ22" s="31">
         <f t="shared" si="30"/>
@@ -9549,9 +7117,9 @@
         <f>IF(CA22&gt;0,CA22-1,IF(BZ22&gt;0,IF($E21&gt;0,BY22-$E$5-1,""),""))</f>
         <v>0</v>
       </c>
-      <c r="CD22" s="17">
+      <c r="CD22" s="17" t="str">
         <f>IF($E21&gt;0,BY20-$E$5,"")</f>
-        <v>34</v>
+        <v/>
       </c>
       <c r="CE22" s="13">
         <f>IF(CA22&lt;$E$4-1,CA22+1,IF(BZ22&lt;$E$5-1,IF($E21&gt;0,BY22-$E$5+1,""),""))</f>
@@ -9559,7 +7127,7 @@
       </c>
       <c r="CF22" s="33">
         <f>CG22+$E$5*$E21</f>
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="CG22" s="31">
         <f t="shared" si="33"/>
@@ -9577,9 +7145,9 @@
         <f>IF(CH22&gt;0,CH22-1,IF(CG22&gt;0,IF($E21&gt;0,CF22-$E$5-1,""),""))</f>
         <v>1</v>
       </c>
-      <c r="CK22" s="17">
+      <c r="CK22" s="17" t="str">
         <f>IF($E21&gt;0,CF20-$E$5,"")</f>
-        <v>35</v>
+        <v/>
       </c>
       <c r="CL22" s="13" t="str">
         <f>IF(CH22&lt;$E$4-1,CH22+1,IF(CG22&lt;$E$5-1,IF($E21&gt;0,CF22-$E$5+1,""),""))</f>
@@ -9835,7 +7403,7 @@
       <c r="F29" s="34"/>
       <c r="G29" s="18">
         <f>H29+$E$5*$E30</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H29" s="29">
         <f>I29+J29*$E$4</f>
@@ -9849,9 +7417,9 @@
         <f>TRUNC(L$9/$E$4,0)</f>
         <v>0</v>
       </c>
-      <c r="K29" s="35">
+      <c r="K29" s="35" t="str">
         <f>IF(I29&lt;$E$4-1,IF($E30&lt;NY-1,G29+$E$5,""),"")</f>
-        <v>12</v>
+        <v/>
       </c>
       <c r="L29" s="24"/>
       <c r="M29" s="36" t="str">
@@ -9860,7 +7428,7 @@
       </c>
       <c r="N29" s="18">
         <f>O29+$E$5*$E30</f>
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="O29" s="29">
         <f>P29+Q29*$E$4</f>
@@ -9874,18 +7442,18 @@
         <f>TRUNC(S$9/$E$4,0)</f>
         <v>0</v>
       </c>
-      <c r="R29" s="35">
+      <c r="R29" s="35" t="str">
         <f>IF(P29&lt;$E$4-1,IF($E30&lt;NY-1,N29+$E$5,""),"")</f>
-        <v>13</v>
+        <v/>
       </c>
       <c r="S29" s="24"/>
-      <c r="T29" s="36">
+      <c r="T29" s="36" t="str">
         <f>IF(P29&gt;0,IF($E30&lt;NY-1,N29+$E$5,""),"")</f>
-        <v>13</v>
+        <v/>
       </c>
       <c r="U29" s="18">
         <f>V29+$E$5*$E30</f>
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="V29" s="29">
         <f>W29+X29*$E$4</f>
@@ -9904,13 +7472,13 @@
         <v/>
       </c>
       <c r="Z29" s="24"/>
-      <c r="AA29" s="36">
+      <c r="AA29" s="36" t="str">
         <f>IF(W29&gt;0,IF($E30&lt;NY-1,U29+$E$5,""),"")</f>
-        <v>14</v>
+        <v/>
       </c>
       <c r="AB29" s="18">
         <f>AC29+$E$5*$E30</f>
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="AC29" s="29">
         <f>AD29+AE29*$E$4</f>
@@ -9924,9 +7492,9 @@
         <f>TRUNC(AG$9/$E$4,0)</f>
         <v>1</v>
       </c>
-      <c r="AF29" s="35">
+      <c r="AF29" s="35" t="str">
         <f>IF(AD29&lt;$E$4-1,IF($E30&lt;NY-1,AB29+$E$5,""),"")</f>
-        <v>15</v>
+        <v/>
       </c>
       <c r="AG29" s="24"/>
       <c r="AH29" s="36" t="str">
@@ -9935,7 +7503,7 @@
       </c>
       <c r="AI29" s="18">
         <f>AJ29+$E$5*$E30</f>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="AJ29" s="29">
         <f>AK29+AL29*$E$4</f>
@@ -9949,18 +7517,18 @@
         <f>TRUNC(AN$9/$E$4,0)</f>
         <v>1</v>
       </c>
-      <c r="AM29" s="35">
+      <c r="AM29" s="35" t="str">
         <f>IF(AK29&lt;$E$4-1,IF($E30&lt;NY-1,AI29+$E$5,""),"")</f>
-        <v>16</v>
+        <v/>
       </c>
       <c r="AN29" s="24"/>
-      <c r="AO29" s="36">
+      <c r="AO29" s="36" t="str">
         <f>IF(AK29&gt;0,IF($E30&lt;NY-1,AI29+$E$5,""),"")</f>
-        <v>16</v>
+        <v/>
       </c>
       <c r="AP29" s="18">
         <f>AQ29+$E$5*$E30</f>
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="AQ29" s="29">
         <f>AR29+AS29*$E$4</f>
@@ -9979,13 +7547,13 @@
         <v/>
       </c>
       <c r="AU29" s="24"/>
-      <c r="AV29" s="36">
+      <c r="AV29" s="36" t="str">
         <f>IF(AR29&gt;0,IF($E30&lt;NY-1,AP29+$E$5,""),"")</f>
-        <v>17</v>
+        <v/>
       </c>
       <c r="AW29" s="18">
         <f>AX29+$E$5*$E30</f>
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="AX29" s="29">
         <f>AY29+AZ29*$E$4</f>
@@ -9999,9 +7567,9 @@
         <f>TRUNC(BB$9/$E$4,0)</f>
         <v>2</v>
       </c>
-      <c r="BA29" s="35">
+      <c r="BA29" s="35" t="str">
         <f>IF(AY29&lt;$E$4-1,IF($E30&lt;NY-1,AW29+$E$5,""),"")</f>
-        <v>18</v>
+        <v/>
       </c>
       <c r="BB29" s="24"/>
       <c r="BC29" s="36" t="str">
@@ -10010,7 +7578,7 @@
       </c>
       <c r="BD29" s="18">
         <f>BE29+$E$5*$E30</f>
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="BE29" s="29">
         <f>BF29+BG29*$E$4</f>
@@ -10024,18 +7592,18 @@
         <f>TRUNC(BI$9/$E$4,0)</f>
         <v>2</v>
       </c>
-      <c r="BH29" s="35">
+      <c r="BH29" s="35" t="str">
         <f>IF(BF29&lt;$E$4-1,IF($E30&lt;NY-1,BD29+$E$5,""),"")</f>
-        <v>19</v>
+        <v/>
       </c>
       <c r="BI29" s="24"/>
-      <c r="BJ29" s="36">
+      <c r="BJ29" s="36" t="str">
         <f>IF(BF29&gt;0,IF($E30&lt;NY-1,BD29+$E$5,""),"")</f>
-        <v>19</v>
+        <v/>
       </c>
       <c r="BK29" s="18">
         <f>BL29+$E$5*$E30</f>
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="BL29" s="29">
         <f>BM29+BN29*$E$4</f>
@@ -10054,13 +7622,13 @@
         <v/>
       </c>
       <c r="BP29" s="24"/>
-      <c r="BQ29" s="36">
+      <c r="BQ29" s="36" t="str">
         <f>IF(BM29&gt;0,IF($E30&lt;NY-1,BK29+$E$5,""),"")</f>
-        <v>20</v>
+        <v/>
       </c>
       <c r="BR29" s="18">
         <f>BS29+$E$5*$E30</f>
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="BS29" s="29">
         <f>BT29+BU29*$E$4</f>
@@ -10074,9 +7642,9 @@
         <f>TRUNC(BW$9/$E$4,0)</f>
         <v>3</v>
       </c>
-      <c r="BV29" s="35">
+      <c r="BV29" s="35" t="str">
         <f>IF(BT29&lt;$E$4-1,IF($E30&lt;NY-1,BR29+$E$5,""),"")</f>
-        <v>21</v>
+        <v/>
       </c>
       <c r="BW29" s="24"/>
       <c r="BX29" s="36" t="str">
@@ -10085,7 +7653,7 @@
       </c>
       <c r="BY29" s="18">
         <f>BZ29+$E$5*$E30</f>
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="BZ29" s="29">
         <f>CA29+CB29*$E$4</f>
@@ -10099,18 +7667,18 @@
         <f>TRUNC(CD$9/$E$4,0)</f>
         <v>3</v>
       </c>
-      <c r="CC29" s="35">
+      <c r="CC29" s="35" t="str">
         <f>IF(CA29&lt;$E$4-1,IF($E30&lt;NY-1,BY29+$E$5,""),"")</f>
-        <v>22</v>
+        <v/>
       </c>
       <c r="CD29" s="24"/>
-      <c r="CE29" s="36">
+      <c r="CE29" s="36" t="str">
         <f>IF(CA29&gt;0,IF($E30&lt;NY-1,BY29+$E$5,""),"")</f>
-        <v>22</v>
+        <v/>
       </c>
       <c r="CF29" s="18">
         <f>CG29+$E$5*$E30</f>
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="CG29" s="29">
         <f>CH29+CI29*$E$4</f>
@@ -10129,19 +7697,19 @@
         <v/>
       </c>
       <c r="CK29" s="24"/>
-      <c r="CL29" s="36">
+      <c r="CL29" s="36" t="str">
         <f>IF(CH29&gt;0,IF($E30&lt;NY-1,CF29+$E$5,""),"")</f>
-        <v>23</v>
+        <v/>
       </c>
     </row>
     <row r="30" spans="5:90" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E30" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F30" s="34"/>
       <c r="G30" s="32">
         <f>H30+$E$5*$E30</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H30" s="30">
         <f>I30+J30*$E$4</f>
@@ -10157,11 +7725,11 @@
       </c>
       <c r="K30" s="37">
         <f>IF(I30&lt;$E$4-1,G30,"")</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="L30" s="45">
         <f>G30</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="M30" s="38" t="str">
         <f>IF(I30&gt;0,G30,"")</f>
@@ -10169,7 +7737,7 @@
       </c>
       <c r="N30" s="32">
         <f>O30+$E$5*$E30</f>
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="O30" s="30">
         <f>P30+Q30*$E$4</f>
@@ -10185,19 +7753,19 @@
       </c>
       <c r="R30" s="37">
         <f>IF(P30&lt;$E$4-1,N30,"")</f>
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="S30" s="45">
         <f>N30</f>
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="T30" s="38">
         <f>IF(P30&gt;0,N30,"")</f>
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="U30" s="32">
         <f>V30+$E$5*$E30</f>
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="V30" s="30">
         <f>W30+X30*$E$4</f>
@@ -10217,15 +7785,15 @@
       </c>
       <c r="Z30" s="45">
         <f>U30</f>
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="AA30" s="38">
         <f>IF(W30&gt;0,U30,"")</f>
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="AB30" s="32">
         <f>AC30+$E$5*$E30</f>
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="AC30" s="30">
         <f>AD30+AE30*$E$4</f>
@@ -10241,11 +7809,11 @@
       </c>
       <c r="AF30" s="37">
         <f>IF(AD30&lt;$E$4-1,AB30,"")</f>
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="AG30" s="45">
         <f>AB30</f>
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="AH30" s="38" t="str">
         <f>IF(AD30&gt;0,AB30,"")</f>
@@ -10253,7 +7821,7 @@
       </c>
       <c r="AI30" s="32">
         <f>AJ30+$E$5*$E30</f>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="AJ30" s="30">
         <f>AK30+AL30*$E$4</f>
@@ -10269,19 +7837,19 @@
       </c>
       <c r="AM30" s="37">
         <f>IF(AK30&lt;$E$4-1,AI30,"")</f>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="AN30" s="45">
         <f>AI30</f>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="AO30" s="38">
         <f>IF(AK30&gt;0,AI30,"")</f>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="AP30" s="32">
         <f>AQ30+$E$5*$E30</f>
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="AQ30" s="30">
         <f>AR30+AS30*$E$4</f>
@@ -10301,15 +7869,15 @@
       </c>
       <c r="AU30" s="45">
         <f>AP30</f>
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="AV30" s="38">
         <f>IF(AR30&gt;0,AP30,"")</f>
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="AW30" s="32">
         <f>AX30+$E$5*$E30</f>
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="AX30" s="30">
         <f>AY30+AZ30*$E$4</f>
@@ -10325,11 +7893,11 @@
       </c>
       <c r="BA30" s="37">
         <f>IF(AY30&lt;$E$4-1,AW30,"")</f>
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="BB30" s="45">
         <f>AW30</f>
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="BC30" s="38" t="str">
         <f>IF(AY30&gt;0,AW30,"")</f>
@@ -10337,7 +7905,7 @@
       </c>
       <c r="BD30" s="32">
         <f>BE30+$E$5*$E30</f>
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="BE30" s="30">
         <f>BF30+BG30*$E$4</f>
@@ -10353,19 +7921,19 @@
       </c>
       <c r="BH30" s="37">
         <f>IF(BF30&lt;$E$4-1,BD30,"")</f>
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="BI30" s="45">
         <f>BD30</f>
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="BJ30" s="38">
         <f>IF(BF30&gt;0,BD30,"")</f>
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="BK30" s="32">
         <f>BL30+$E$5*$E30</f>
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="BL30" s="30">
         <f>BM30+BN30*$E$4</f>
@@ -10385,15 +7953,15 @@
       </c>
       <c r="BP30" s="45">
         <f>BK30</f>
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="BQ30" s="38">
         <f>IF(BM30&gt;0,BK30,"")</f>
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="BR30" s="32">
         <f>BS30+$E$5*$E30</f>
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="BS30" s="30">
         <f>BT30+BU30*$E$4</f>
@@ -10409,11 +7977,11 @@
       </c>
       <c r="BV30" s="37">
         <f>IF(BT30&lt;$E$4-1,BR30,"")</f>
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="BW30" s="45">
         <f>BR30</f>
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="BX30" s="38" t="str">
         <f>IF(BT30&gt;0,BR30,"")</f>
@@ -10421,7 +7989,7 @@
       </c>
       <c r="BY30" s="32">
         <f>BZ30+$E$5*$E30</f>
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="BZ30" s="30">
         <f>CA30+CB30*$E$4</f>
@@ -10437,19 +8005,19 @@
       </c>
       <c r="CC30" s="37">
         <f>IF(CA30&lt;$E$4-1,BY30,"")</f>
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="CD30" s="45">
         <f>BY30</f>
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="CE30" s="38">
         <f>IF(CA30&gt;0,BY30,"")</f>
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="CF30" s="32">
         <f>CG30+$E$5*$E30</f>
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="CG30" s="30">
         <f>CH30+CI30*$E$4</f>
@@ -10469,18 +8037,18 @@
       </c>
       <c r="CK30" s="45">
         <f>CF30</f>
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="CL30" s="38">
         <f>IF(CH30&gt;0,CF30,"")</f>
-        <v>11</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="5:90" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F31" s="34"/>
       <c r="G31" s="33">
         <f>H31+$E$5*$E30</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H31" s="31">
         <f>I31+J31*$E$4</f>
@@ -10494,9 +8062,9 @@
         <f>TRUNC(L$9/$E$4,0)</f>
         <v>0</v>
       </c>
-      <c r="K31" s="39" t="str">
+      <c r="K31" s="39">
         <f>IF(I31&lt;$E$4-1,IF($E30&gt;0,G31-$E$5,""),"")</f>
-        <v/>
+        <v>24</v>
       </c>
       <c r="L31" s="17"/>
       <c r="M31" s="40" t="str">
@@ -10505,7 +8073,7 @@
       </c>
       <c r="N31" s="33">
         <f>O31+$E$5*$E30</f>
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="O31" s="31">
         <f>P31+Q31*$E$4</f>
@@ -10519,18 +8087,18 @@
         <f>TRUNC(S$9/$E$4,0)</f>
         <v>0</v>
       </c>
-      <c r="R31" s="39" t="str">
+      <c r="R31" s="39">
         <f>IF(P31&lt;$E$4-1,IF($E30&gt;0,N31-$E$5,""),"")</f>
-        <v/>
+        <v>25</v>
       </c>
       <c r="S31" s="17"/>
-      <c r="T31" s="40" t="str">
+      <c r="T31" s="40">
         <f>IF(P31&gt;0,IF($E30&gt;0,N31-$E$5,""),"")</f>
-        <v/>
+        <v>25</v>
       </c>
       <c r="U31" s="33">
         <f>V31+$E$5*$E30</f>
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="V31" s="31">
         <f>W31+X31*$E$4</f>
@@ -10549,13 +8117,13 @@
         <v/>
       </c>
       <c r="Z31" s="17"/>
-      <c r="AA31" s="40" t="str">
+      <c r="AA31" s="40">
         <f>IF(W31&gt;0,IF($E30&gt;0,U31-$E$5,""),"")</f>
-        <v/>
+        <v>26</v>
       </c>
       <c r="AB31" s="33">
         <f>AC31+$E$5*$E30</f>
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="AC31" s="31">
         <f>AD31+AE31*$E$4</f>
@@ -10569,9 +8137,9 @@
         <f>TRUNC(AG$9/$E$4,0)</f>
         <v>1</v>
       </c>
-      <c r="AF31" s="39" t="str">
+      <c r="AF31" s="39">
         <f>IF(AD31&lt;$E$4-1,IF($E30&gt;0,AB31-$E$5,""),"")</f>
-        <v/>
+        <v>27</v>
       </c>
       <c r="AG31" s="17"/>
       <c r="AH31" s="40" t="str">
@@ -10580,7 +8148,7 @@
       </c>
       <c r="AI31" s="33">
         <f>AJ31+$E$5*$E30</f>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="AJ31" s="31">
         <f>AK31+AL31*$E$4</f>
@@ -10594,18 +8162,18 @@
         <f>TRUNC(AN$9/$E$4,0)</f>
         <v>1</v>
       </c>
-      <c r="AM31" s="39" t="str">
+      <c r="AM31" s="39">
         <f>IF(AK31&lt;$E$4-1,IF($E30&gt;0,AI31-$E$5,""),"")</f>
-        <v/>
+        <v>28</v>
       </c>
       <c r="AN31" s="17"/>
-      <c r="AO31" s="40" t="str">
+      <c r="AO31" s="40">
         <f>IF(AK31&gt;0,IF($E30&gt;0,AI31-$E$5,""),"")</f>
-        <v/>
+        <v>28</v>
       </c>
       <c r="AP31" s="33">
         <f>AQ31+$E$5*$E30</f>
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="AQ31" s="31">
         <f>AR31+AS31*$E$4</f>
@@ -10624,13 +8192,13 @@
         <v/>
       </c>
       <c r="AU31" s="17"/>
-      <c r="AV31" s="40" t="str">
+      <c r="AV31" s="40">
         <f>IF(AR31&gt;0,IF($E30&gt;0,AP31-$E$5,""),"")</f>
-        <v/>
+        <v>29</v>
       </c>
       <c r="AW31" s="33">
         <f>AX31+$E$5*$E30</f>
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="AX31" s="31">
         <f>AY31+AZ31*$E$4</f>
@@ -10644,9 +8212,9 @@
         <f>TRUNC(BB$9/$E$4,0)</f>
         <v>2</v>
       </c>
-      <c r="BA31" s="39" t="str">
+      <c r="BA31" s="39">
         <f>IF(AY31&lt;$E$4-1,IF($E30&gt;0,AW31-$E$5,""),"")</f>
-        <v/>
+        <v>30</v>
       </c>
       <c r="BB31" s="17"/>
       <c r="BC31" s="40" t="str">
@@ -10655,7 +8223,7 @@
       </c>
       <c r="BD31" s="33">
         <f>BE31+$E$5*$E30</f>
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="BE31" s="31">
         <f>BF31+BG31*$E$4</f>
@@ -10669,18 +8237,18 @@
         <f>TRUNC(BI$9/$E$4,0)</f>
         <v>2</v>
       </c>
-      <c r="BH31" s="39" t="str">
+      <c r="BH31" s="39">
         <f>IF(BF31&lt;$E$4-1,IF($E30&gt;0,BD31-$E$5,""),"")</f>
-        <v/>
+        <v>31</v>
       </c>
       <c r="BI31" s="17"/>
-      <c r="BJ31" s="40" t="str">
+      <c r="BJ31" s="40">
         <f>IF(BF31&gt;0,IF($E30&gt;0,BD31-$E$5,""),"")</f>
-        <v/>
+        <v>31</v>
       </c>
       <c r="BK31" s="33">
         <f>BL31+$E$5*$E30</f>
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="BL31" s="31">
         <f>BM31+BN31*$E$4</f>
@@ -10699,13 +8267,13 @@
         <v/>
       </c>
       <c r="BP31" s="17"/>
-      <c r="BQ31" s="40" t="str">
+      <c r="BQ31" s="40">
         <f>IF(BM31&gt;0,IF($E30&gt;0,BK31-$E$5,""),"")</f>
-        <v/>
+        <v>32</v>
       </c>
       <c r="BR31" s="33">
         <f>BS31+$E$5*$E30</f>
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="BS31" s="31">
         <f>BT31+BU31*$E$4</f>
@@ -10719,9 +8287,9 @@
         <f>TRUNC(BW$9/$E$4,0)</f>
         <v>3</v>
       </c>
-      <c r="BV31" s="39" t="str">
+      <c r="BV31" s="39">
         <f>IF(BT31&lt;$E$4-1,IF($E30&gt;0,BR31-$E$5,""),"")</f>
-        <v/>
+        <v>33</v>
       </c>
       <c r="BW31" s="17"/>
       <c r="BX31" s="40" t="str">
@@ -10730,7 +8298,7 @@
       </c>
       <c r="BY31" s="33">
         <f>BZ31+$E$5*$E30</f>
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="BZ31" s="31">
         <f>CA31+CB31*$E$4</f>
@@ -10744,18 +8312,18 @@
         <f>TRUNC(CD$9/$E$4,0)</f>
         <v>3</v>
       </c>
-      <c r="CC31" s="39" t="str">
+      <c r="CC31" s="39">
         <f>IF(CA31&lt;$E$4-1,IF($E30&gt;0,BY31-$E$5,""),"")</f>
-        <v/>
+        <v>34</v>
       </c>
       <c r="CD31" s="17"/>
-      <c r="CE31" s="40" t="str">
+      <c r="CE31" s="40">
         <f>IF(CA31&gt;0,IF($E30&gt;0,BY31-$E$5,""),"")</f>
-        <v/>
+        <v>34</v>
       </c>
       <c r="CF31" s="33">
         <f>CG31+$E$5*$E30</f>
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="CG31" s="31">
         <f>CH31+CI31*$E$4</f>
@@ -10774,16 +8342,16 @@
         <v/>
       </c>
       <c r="CK31" s="17"/>
-      <c r="CL31" s="40" t="str">
+      <c r="CL31" s="40">
         <f>IF(CH31&gt;0,IF($E30&gt;0,CF31-$E$5,""),"")</f>
-        <v/>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="5:90" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F32" s="34"/>
       <c r="G32" s="18">
         <f>H32+$E$5*$E33</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H32" s="29">
         <f t="shared" ref="H32:H40" si="36">I32+J32*$E$4</f>
@@ -10799,7 +8367,7 @@
       </c>
       <c r="K32" s="35">
         <f>IF(I32&lt;$E$4-1,IF($E33&lt;NY-1,G32+$E$5,""),"")</f>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="L32" s="24"/>
       <c r="M32" s="36" t="str">
@@ -10808,7 +8376,7 @@
       </c>
       <c r="N32" s="18">
         <f>O32+$E$5*$E33</f>
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="O32" s="29">
         <f t="shared" ref="O32:O40" si="39">P32+Q32*$E$4</f>
@@ -10824,16 +8392,16 @@
       </c>
       <c r="R32" s="35">
         <f>IF(P32&lt;$E$4-1,IF($E33&lt;NY-1,N32+$E$5,""),"")</f>
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="S32" s="24"/>
       <c r="T32" s="36">
         <f>IF(P32&gt;0,IF($E33&lt;NY-1,N32+$E$5,""),"")</f>
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="U32" s="18">
         <f>V32+$E$5*$E33</f>
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="V32" s="29">
         <f t="shared" ref="V32:V40" si="42">W32+X32*$E$4</f>
@@ -10854,11 +8422,11 @@
       <c r="Z32" s="24"/>
       <c r="AA32" s="36">
         <f>IF(W32&gt;0,IF($E33&lt;NY-1,U32+$E$5,""),"")</f>
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="AB32" s="18">
         <f>AC32+$E$5*$E33</f>
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="AC32" s="29">
         <f t="shared" ref="AC32:AC40" si="45">AD32+AE32*$E$4</f>
@@ -10874,7 +8442,7 @@
       </c>
       <c r="AF32" s="35">
         <f>IF(AD32&lt;$E$4-1,IF($E33&lt;NY-1,AB32+$E$5,""),"")</f>
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="AG32" s="24"/>
       <c r="AH32" s="36" t="str">
@@ -10883,7 +8451,7 @@
       </c>
       <c r="AI32" s="18">
         <f>AJ32+$E$5*$E33</f>
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="AJ32" s="29">
         <f t="shared" ref="AJ32:AJ40" si="48">AK32+AL32*$E$4</f>
@@ -10899,16 +8467,16 @@
       </c>
       <c r="AM32" s="35">
         <f>IF(AK32&lt;$E$4-1,IF($E33&lt;NY-1,AI32+$E$5,""),"")</f>
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AN32" s="24"/>
       <c r="AO32" s="36">
         <f>IF(AK32&gt;0,IF($E33&lt;NY-1,AI32+$E$5,""),"")</f>
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AP32" s="18">
         <f>AQ32+$E$5*$E33</f>
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AQ32" s="29">
         <f t="shared" ref="AQ32:AQ40" si="51">AR32+AS32*$E$4</f>
@@ -10929,11 +8497,11 @@
       <c r="AU32" s="24"/>
       <c r="AV32" s="36">
         <f>IF(AR32&gt;0,IF($E33&lt;NY-1,AP32+$E$5,""),"")</f>
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AW32" s="18">
         <f>AX32+$E$5*$E33</f>
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="AX32" s="29">
         <f t="shared" ref="AX32:AX40" si="54">AY32+AZ32*$E$4</f>
@@ -10949,7 +8517,7 @@
       </c>
       <c r="BA32" s="35">
         <f>IF(AY32&lt;$E$4-1,IF($E33&lt;NY-1,AW32+$E$5,""),"")</f>
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="BB32" s="24"/>
       <c r="BC32" s="36" t="str">
@@ -10958,7 +8526,7 @@
       </c>
       <c r="BD32" s="18">
         <f>BE32+$E$5*$E33</f>
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="BE32" s="29">
         <f t="shared" ref="BE32:BE40" si="57">BF32+BG32*$E$4</f>
@@ -10974,16 +8542,16 @@
       </c>
       <c r="BH32" s="35">
         <f>IF(BF32&lt;$E$4-1,IF($E33&lt;NY-1,BD32+$E$5,""),"")</f>
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="BI32" s="24"/>
       <c r="BJ32" s="36">
         <f>IF(BF32&gt;0,IF($E33&lt;NY-1,BD32+$E$5,""),"")</f>
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="BK32" s="18">
         <f>BL32+$E$5*$E33</f>
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="BL32" s="29">
         <f t="shared" ref="BL32:BL40" si="60">BM32+BN32*$E$4</f>
@@ -11004,11 +8572,11 @@
       <c r="BP32" s="24"/>
       <c r="BQ32" s="36">
         <f>IF(BM32&gt;0,IF($E33&lt;NY-1,BK32+$E$5,""),"")</f>
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="BR32" s="18">
         <f>BS32+$E$5*$E33</f>
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="BS32" s="29">
         <f t="shared" ref="BS32:BS40" si="63">BT32+BU32*$E$4</f>
@@ -11024,7 +8592,7 @@
       </c>
       <c r="BV32" s="35">
         <f>IF(BT32&lt;$E$4-1,IF($E33&lt;NY-1,BR32+$E$5,""),"")</f>
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="BW32" s="24"/>
       <c r="BX32" s="36" t="str">
@@ -11033,7 +8601,7 @@
       </c>
       <c r="BY32" s="18">
         <f>BZ32+$E$5*$E33</f>
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="BZ32" s="29">
         <f t="shared" ref="BZ32:BZ40" si="66">CA32+CB32*$E$4</f>
@@ -11049,16 +8617,16 @@
       </c>
       <c r="CC32" s="35">
         <f>IF(CA32&lt;$E$4-1,IF($E33&lt;NY-1,BY32+$E$5,""),"")</f>
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="CD32" s="24"/>
       <c r="CE32" s="36">
         <f>IF(CA32&gt;0,IF($E33&lt;NY-1,BY32+$E$5,""),"")</f>
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="CF32" s="18">
         <f>CG32+$E$5*$E33</f>
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="CG32" s="29">
         <f t="shared" ref="CG32:CG40" si="69">CH32+CI32*$E$4</f>
@@ -11079,17 +8647,17 @@
       <c r="CK32" s="24"/>
       <c r="CL32" s="36">
         <f>IF(CH32&gt;0,IF($E33&lt;NY-1,CF32+$E$5,""),"")</f>
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="5:90" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E33" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33" s="34"/>
       <c r="G33" s="32">
         <f>H33+$E$5*$E33</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H33" s="30">
         <f t="shared" si="36"/>
@@ -11105,11 +8673,11 @@
       </c>
       <c r="K33" s="37">
         <f>IF(I33&lt;$E$4-1,G33,"")</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="L33" s="45">
         <f>G33</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="M33" s="38" t="str">
         <f>IF(I33&gt;0,G33,"")</f>
@@ -11117,7 +8685,7 @@
       </c>
       <c r="N33" s="32">
         <f>O33+$E$5*$E33</f>
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="O33" s="30">
         <f t="shared" si="39"/>
@@ -11133,19 +8701,19 @@
       </c>
       <c r="R33" s="37">
         <f>IF(P33&lt;$E$4-1,N33,"")</f>
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="S33" s="45">
         <f>N33</f>
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="T33" s="38">
         <f>IF(P33&gt;0,N33,"")</f>
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="U33" s="32">
         <f>V33+$E$5*$E33</f>
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="V33" s="30">
         <f t="shared" si="42"/>
@@ -11165,15 +8733,15 @@
       </c>
       <c r="Z33" s="45">
         <f>U33</f>
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="AA33" s="38">
         <f>IF(W33&gt;0,U33,"")</f>
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="AB33" s="32">
         <f>AC33+$E$5*$E33</f>
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="AC33" s="30">
         <f t="shared" si="45"/>
@@ -11189,11 +8757,11 @@
       </c>
       <c r="AF33" s="37">
         <f>IF(AD33&lt;$E$4-1,AB33,"")</f>
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="AG33" s="45">
         <f>AB33</f>
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="AH33" s="38" t="str">
         <f>IF(AD33&gt;0,AB33,"")</f>
@@ -11201,7 +8769,7 @@
       </c>
       <c r="AI33" s="32">
         <f>AJ33+$E$5*$E33</f>
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="AJ33" s="30">
         <f t="shared" si="48"/>
@@ -11217,19 +8785,19 @@
       </c>
       <c r="AM33" s="37">
         <f>IF(AK33&lt;$E$4-1,AI33,"")</f>
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="AN33" s="45">
         <f>AI33</f>
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="AO33" s="38">
         <f>IF(AK33&gt;0,AI33,"")</f>
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="AP33" s="32">
         <f>AQ33+$E$5*$E33</f>
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AQ33" s="30">
         <f t="shared" si="51"/>
@@ -11249,15 +8817,15 @@
       </c>
       <c r="AU33" s="45">
         <f>AP33</f>
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AV33" s="38">
         <f>IF(AR33&gt;0,AP33,"")</f>
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AW33" s="32">
         <f>AX33+$E$5*$E33</f>
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="AX33" s="30">
         <f t="shared" si="54"/>
@@ -11273,11 +8841,11 @@
       </c>
       <c r="BA33" s="37">
         <f>IF(AY33&lt;$E$4-1,AW33,"")</f>
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="BB33" s="45">
         <f>AW33</f>
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="BC33" s="38" t="str">
         <f>IF(AY33&gt;0,AW33,"")</f>
@@ -11285,7 +8853,7 @@
       </c>
       <c r="BD33" s="32">
         <f>BE33+$E$5*$E33</f>
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="BE33" s="30">
         <f t="shared" si="57"/>
@@ -11301,19 +8869,19 @@
       </c>
       <c r="BH33" s="37">
         <f>IF(BF33&lt;$E$4-1,BD33,"")</f>
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="BI33" s="45">
         <f>BD33</f>
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="BJ33" s="38">
         <f>IF(BF33&gt;0,BD33,"")</f>
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="BK33" s="32">
         <f>BL33+$E$5*$E33</f>
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="BL33" s="30">
         <f t="shared" si="60"/>
@@ -11333,15 +8901,15 @@
       </c>
       <c r="BP33" s="45">
         <f>BK33</f>
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="BQ33" s="38">
         <f>IF(BM33&gt;0,BK33,"")</f>
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="BR33" s="32">
         <f>BS33+$E$5*$E33</f>
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="BS33" s="30">
         <f t="shared" si="63"/>
@@ -11357,11 +8925,11 @@
       </c>
       <c r="BV33" s="37">
         <f>IF(BT33&lt;$E$4-1,BR33,"")</f>
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="BW33" s="45">
         <f>BR33</f>
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="BX33" s="38" t="str">
         <f>IF(BT33&gt;0,BR33,"")</f>
@@ -11369,7 +8937,7 @@
       </c>
       <c r="BY33" s="32">
         <f>BZ33+$E$5*$E33</f>
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="BZ33" s="30">
         <f t="shared" si="66"/>
@@ -11385,19 +8953,19 @@
       </c>
       <c r="CC33" s="37">
         <f>IF(CA33&lt;$E$4-1,BY33,"")</f>
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="CD33" s="45">
         <f>BY33</f>
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="CE33" s="38">
         <f>IF(CA33&gt;0,BY33,"")</f>
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="CF33" s="32">
         <f>CG33+$E$5*$E33</f>
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="CG33" s="30">
         <f t="shared" si="69"/>
@@ -11417,18 +8985,18 @@
       </c>
       <c r="CK33" s="45">
         <f>CF33</f>
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="CL33" s="38">
         <f>IF(CH33&gt;0,CF33,"")</f>
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="5:90" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F34" s="34"/>
       <c r="G34" s="33">
         <f>H34+$E$5*$E33</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H34" s="31">
         <f t="shared" si="36"/>
@@ -11444,7 +9012,7 @@
       </c>
       <c r="K34" s="39">
         <f>IF(I34&lt;$E$4-1,IF($E33&gt;0,G34-$E$5,""),"")</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L34" s="17"/>
       <c r="M34" s="40" t="str">
@@ -11453,7 +9021,7 @@
       </c>
       <c r="N34" s="33">
         <f>O34+$E$5*$E33</f>
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="O34" s="31">
         <f t="shared" si="39"/>
@@ -11469,16 +9037,16 @@
       </c>
       <c r="R34" s="39">
         <f>IF(P34&lt;$E$4-1,IF($E33&gt;0,N34-$E$5,""),"")</f>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="S34" s="17"/>
       <c r="T34" s="40">
         <f>IF(P34&gt;0,IF($E33&gt;0,N34-$E$5,""),"")</f>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="U34" s="33">
         <f>V34+$E$5*$E33</f>
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="V34" s="31">
         <f t="shared" si="42"/>
@@ -11499,11 +9067,11 @@
       <c r="Z34" s="17"/>
       <c r="AA34" s="40">
         <f>IF(W34&gt;0,IF($E33&gt;0,U34-$E$5,""),"")</f>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AB34" s="33">
         <f>AC34+$E$5*$E33</f>
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="AC34" s="31">
         <f t="shared" si="45"/>
@@ -11519,7 +9087,7 @@
       </c>
       <c r="AF34" s="39">
         <f>IF(AD34&lt;$E$4-1,IF($E33&gt;0,AB34-$E$5,""),"")</f>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AG34" s="17"/>
       <c r="AH34" s="40" t="str">
@@ -11528,7 +9096,7 @@
       </c>
       <c r="AI34" s="33">
         <f>AJ34+$E$5*$E33</f>
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="AJ34" s="31">
         <f t="shared" si="48"/>
@@ -11544,16 +9112,16 @@
       </c>
       <c r="AM34" s="39">
         <f>IF(AK34&lt;$E$4-1,IF($E33&gt;0,AI34-$E$5,""),"")</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AN34" s="17"/>
       <c r="AO34" s="40">
         <f>IF(AK34&gt;0,IF($E33&gt;0,AI34-$E$5,""),"")</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AP34" s="33">
         <f>AQ34+$E$5*$E33</f>
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AQ34" s="31">
         <f t="shared" si="51"/>
@@ -11574,11 +9142,11 @@
       <c r="AU34" s="17"/>
       <c r="AV34" s="40">
         <f>IF(AR34&gt;0,IF($E33&gt;0,AP34-$E$5,""),"")</f>
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AW34" s="33">
         <f>AX34+$E$5*$E33</f>
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="AX34" s="31">
         <f t="shared" si="54"/>
@@ -11594,7 +9162,7 @@
       </c>
       <c r="BA34" s="39">
         <f>IF(AY34&lt;$E$4-1,IF($E33&gt;0,AW34-$E$5,""),"")</f>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="BB34" s="17"/>
       <c r="BC34" s="40" t="str">
@@ -11603,7 +9171,7 @@
       </c>
       <c r="BD34" s="33">
         <f>BE34+$E$5*$E33</f>
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="BE34" s="31">
         <f t="shared" si="57"/>
@@ -11619,16 +9187,16 @@
       </c>
       <c r="BH34" s="39">
         <f>IF(BF34&lt;$E$4-1,IF($E33&gt;0,BD34-$E$5,""),"")</f>
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="BI34" s="17"/>
       <c r="BJ34" s="40">
         <f>IF(BF34&gt;0,IF($E33&gt;0,BD34-$E$5,""),"")</f>
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="BK34" s="33">
         <f>BL34+$E$5*$E33</f>
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="BL34" s="31">
         <f t="shared" si="60"/>
@@ -11649,11 +9217,11 @@
       <c r="BP34" s="17"/>
       <c r="BQ34" s="40">
         <f>IF(BM34&gt;0,IF($E33&gt;0,BK34-$E$5,""),"")</f>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="BR34" s="33">
         <f>BS34+$E$5*$E33</f>
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="BS34" s="31">
         <f t="shared" si="63"/>
@@ -11669,7 +9237,7 @@
       </c>
       <c r="BV34" s="39">
         <f>IF(BT34&lt;$E$4-1,IF($E33&gt;0,BR34-$E$5,""),"")</f>
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="BW34" s="17"/>
       <c r="BX34" s="40" t="str">
@@ -11678,7 +9246,7 @@
       </c>
       <c r="BY34" s="33">
         <f>BZ34+$E$5*$E33</f>
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="BZ34" s="31">
         <f t="shared" si="66"/>
@@ -11694,16 +9262,16 @@
       </c>
       <c r="CC34" s="39">
         <f>IF(CA34&lt;$E$4-1,IF($E33&gt;0,BY34-$E$5,""),"")</f>
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="CD34" s="17"/>
       <c r="CE34" s="40">
         <f>IF(CA34&gt;0,IF($E33&gt;0,BY34-$E$5,""),"")</f>
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="CF34" s="33">
         <f>CG34+$E$5*$E33</f>
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="CG34" s="31">
         <f t="shared" si="69"/>
@@ -11724,14 +9292,14 @@
       <c r="CK34" s="17"/>
       <c r="CL34" s="40">
         <f>IF(CH34&gt;0,IF($E33&gt;0,CF34-$E$5,""),"")</f>
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="5:90" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F35" s="34"/>
       <c r="G35" s="18">
         <f>H35+$E$5*$E36</f>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H35" s="29">
         <f t="shared" si="36"/>
@@ -11747,7 +9315,7 @@
       </c>
       <c r="K35" s="35">
         <f>IF(I35&lt;$E$4-1,IF($E36&lt;NY-1,G35+$E$5,""),"")</f>
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="L35" s="24"/>
       <c r="M35" s="36" t="str">
@@ -11756,7 +9324,7 @@
       </c>
       <c r="N35" s="18">
         <f>O35+$E$5*$E36</f>
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="O35" s="29">
         <f t="shared" si="39"/>
@@ -11772,16 +9340,16 @@
       </c>
       <c r="R35" s="35">
         <f>IF(P35&lt;$E$4-1,IF($E36&lt;NY-1,N35+$E$5,""),"")</f>
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="S35" s="24"/>
       <c r="T35" s="36">
         <f>IF(P35&gt;0,IF($E36&lt;NY-1,N35+$E$5,""),"")</f>
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="U35" s="18">
         <f>V35+$E$5*$E36</f>
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="V35" s="29">
         <f t="shared" si="42"/>
@@ -11802,11 +9370,11 @@
       <c r="Z35" s="24"/>
       <c r="AA35" s="36">
         <f>IF(W35&gt;0,IF($E36&lt;NY-1,U35+$E$5,""),"")</f>
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="AB35" s="18">
         <f>AC35+$E$5*$E36</f>
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="AC35" s="29">
         <f t="shared" si="45"/>
@@ -11822,7 +9390,7 @@
       </c>
       <c r="AF35" s="35">
         <f>IF(AD35&lt;$E$4-1,IF($E36&lt;NY-1,AB35+$E$5,""),"")</f>
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="AG35" s="24"/>
       <c r="AH35" s="36" t="str">
@@ -11831,7 +9399,7 @@
       </c>
       <c r="AI35" s="18">
         <f>AJ35+$E$5*$E36</f>
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="AJ35" s="29">
         <f t="shared" si="48"/>
@@ -11847,16 +9415,16 @@
       </c>
       <c r="AM35" s="35">
         <f>IF(AK35&lt;$E$4-1,IF($E36&lt;NY-1,AI35+$E$5,""),"")</f>
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="AN35" s="24"/>
       <c r="AO35" s="36">
         <f>IF(AK35&gt;0,IF($E36&lt;NY-1,AI35+$E$5,""),"")</f>
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="AP35" s="18">
         <f>AQ35+$E$5*$E36</f>
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AQ35" s="29">
         <f t="shared" si="51"/>
@@ -11877,11 +9445,11 @@
       <c r="AU35" s="24"/>
       <c r="AV35" s="36">
         <f>IF(AR35&gt;0,IF($E36&lt;NY-1,AP35+$E$5,""),"")</f>
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AW35" s="18">
         <f>AX35+$E$5*$E36</f>
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="AX35" s="29">
         <f t="shared" si="54"/>
@@ -11897,7 +9465,7 @@
       </c>
       <c r="BA35" s="35">
         <f>IF(AY35&lt;$E$4-1,IF($E36&lt;NY-1,AW35+$E$5,""),"")</f>
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="BB35" s="24"/>
       <c r="BC35" s="36" t="str">
@@ -11906,7 +9474,7 @@
       </c>
       <c r="BD35" s="18">
         <f>BE35+$E$5*$E36</f>
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="BE35" s="29">
         <f t="shared" si="57"/>
@@ -11922,16 +9490,16 @@
       </c>
       <c r="BH35" s="35">
         <f>IF(BF35&lt;$E$4-1,IF($E36&lt;NY-1,BD35+$E$5,""),"")</f>
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="BI35" s="24"/>
       <c r="BJ35" s="36">
         <f>IF(BF35&gt;0,IF($E36&lt;NY-1,BD35+$E$5,""),"")</f>
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="BK35" s="18">
         <f>BL35+$E$5*$E36</f>
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="BL35" s="29">
         <f t="shared" si="60"/>
@@ -11952,11 +9520,11 @@
       <c r="BP35" s="24"/>
       <c r="BQ35" s="36">
         <f>IF(BM35&gt;0,IF($E36&lt;NY-1,BK35+$E$5,""),"")</f>
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="BR35" s="18">
         <f>BS35+$E$5*$E36</f>
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="BS35" s="29">
         <f t="shared" si="63"/>
@@ -11972,7 +9540,7 @@
       </c>
       <c r="BV35" s="35">
         <f>IF(BT35&lt;$E$4-1,IF($E36&lt;NY-1,BR35+$E$5,""),"")</f>
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="BW35" s="24"/>
       <c r="BX35" s="36" t="str">
@@ -11981,7 +9549,7 @@
       </c>
       <c r="BY35" s="18">
         <f>BZ35+$E$5*$E36</f>
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="BZ35" s="29">
         <f t="shared" si="66"/>
@@ -11997,16 +9565,16 @@
       </c>
       <c r="CC35" s="35">
         <f>IF(CA35&lt;$E$4-1,IF($E36&lt;NY-1,BY35+$E$5,""),"")</f>
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="CD35" s="24"/>
       <c r="CE35" s="36">
         <f>IF(CA35&gt;0,IF($E36&lt;NY-1,BY35+$E$5,""),"")</f>
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="CF35" s="18">
         <f>CG35+$E$5*$E36</f>
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="CG35" s="29">
         <f t="shared" si="69"/>
@@ -12027,17 +9595,17 @@
       <c r="CK35" s="24"/>
       <c r="CL35" s="36">
         <f>IF(CH35&gt;0,IF($E36&lt;NY-1,CF35+$E$5,""),"")</f>
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="5:90" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E36" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36" s="34"/>
       <c r="G36" s="32">
         <f>H36+$E$5*$E36</f>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H36" s="30">
         <f t="shared" si="36"/>
@@ -12053,11 +9621,11 @@
       </c>
       <c r="K36" s="37">
         <f>IF(I36&lt;$E$4-1,G36,"")</f>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L36" s="45">
         <f>G36</f>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M36" s="38" t="str">
         <f>IF(I36&gt;0,G36,"")</f>
@@ -12065,7 +9633,7 @@
       </c>
       <c r="N36" s="32">
         <f>O36+$E$5*$E36</f>
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="O36" s="30">
         <f t="shared" si="39"/>
@@ -12081,19 +9649,19 @@
       </c>
       <c r="R36" s="37">
         <f>IF(P36&lt;$E$4-1,N36,"")</f>
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="S36" s="45">
         <f>N36</f>
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="T36" s="38">
         <f>IF(P36&gt;0,N36,"")</f>
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="U36" s="32">
         <f>V36+$E$5*$E36</f>
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="V36" s="30">
         <f t="shared" si="42"/>
@@ -12113,15 +9681,15 @@
       </c>
       <c r="Z36" s="45">
         <f>U36</f>
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="AA36" s="38">
         <f>IF(W36&gt;0,U36,"")</f>
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="AB36" s="32">
         <f>AC36+$E$5*$E36</f>
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="AC36" s="30">
         <f t="shared" si="45"/>
@@ -12137,11 +9705,11 @@
       </c>
       <c r="AF36" s="37">
         <f>IF(AD36&lt;$E$4-1,AB36,"")</f>
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="AG36" s="45">
         <f>AB36</f>
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="AH36" s="38" t="str">
         <f>IF(AD36&gt;0,AB36,"")</f>
@@ -12149,7 +9717,7 @@
       </c>
       <c r="AI36" s="32">
         <f>AJ36+$E$5*$E36</f>
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="AJ36" s="30">
         <f t="shared" si="48"/>
@@ -12165,19 +9733,19 @@
       </c>
       <c r="AM36" s="37">
         <f>IF(AK36&lt;$E$4-1,AI36,"")</f>
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="AN36" s="45">
         <f>AI36</f>
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="AO36" s="38">
         <f>IF(AK36&gt;0,AI36,"")</f>
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="AP36" s="32">
         <f>AQ36+$E$5*$E36</f>
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AQ36" s="30">
         <f t="shared" si="51"/>
@@ -12197,15 +9765,15 @@
       </c>
       <c r="AU36" s="45">
         <f>AP36</f>
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AV36" s="38">
         <f>IF(AR36&gt;0,AP36,"")</f>
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AW36" s="32">
         <f>AX36+$E$5*$E36</f>
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="AX36" s="30">
         <f t="shared" si="54"/>
@@ -12221,11 +9789,11 @@
       </c>
       <c r="BA36" s="37">
         <f>IF(AY36&lt;$E$4-1,AW36,"")</f>
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="BB36" s="45">
         <f>AW36</f>
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="BC36" s="38" t="str">
         <f>IF(AY36&gt;0,AW36,"")</f>
@@ -12233,7 +9801,7 @@
       </c>
       <c r="BD36" s="32">
         <f>BE36+$E$5*$E36</f>
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="BE36" s="30">
         <f t="shared" si="57"/>
@@ -12249,19 +9817,19 @@
       </c>
       <c r="BH36" s="37">
         <f>IF(BF36&lt;$E$4-1,BD36,"")</f>
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="BI36" s="45">
         <f>BD36</f>
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="BJ36" s="38">
         <f>IF(BF36&gt;0,BD36,"")</f>
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="BK36" s="32">
         <f>BL36+$E$5*$E36</f>
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="BL36" s="30">
         <f t="shared" si="60"/>
@@ -12281,15 +9849,15 @@
       </c>
       <c r="BP36" s="45">
         <f>BK36</f>
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="BQ36" s="38">
         <f>IF(BM36&gt;0,BK36,"")</f>
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="BR36" s="32">
         <f>BS36+$E$5*$E36</f>
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="BS36" s="30">
         <f t="shared" si="63"/>
@@ -12305,11 +9873,11 @@
       </c>
       <c r="BV36" s="37">
         <f>IF(BT36&lt;$E$4-1,BR36,"")</f>
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="BW36" s="45">
         <f>BR36</f>
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="BX36" s="38" t="str">
         <f>IF(BT36&gt;0,BR36,"")</f>
@@ -12317,7 +9885,7 @@
       </c>
       <c r="BY36" s="32">
         <f>BZ36+$E$5*$E36</f>
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="BZ36" s="30">
         <f t="shared" si="66"/>
@@ -12333,19 +9901,19 @@
       </c>
       <c r="CC36" s="37">
         <f>IF(CA36&lt;$E$4-1,BY36,"")</f>
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="CD36" s="45">
         <f>BY36</f>
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="CE36" s="38">
         <f>IF(CA36&gt;0,BY36,"")</f>
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="CF36" s="32">
         <f>CG36+$E$5*$E36</f>
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="CG36" s="30">
         <f t="shared" si="69"/>
@@ -12365,18 +9933,18 @@
       </c>
       <c r="CK36" s="45">
         <f>CF36</f>
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="CL36" s="38">
         <f>IF(CH36&gt;0,CF36,"")</f>
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="5:90" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F37" s="34"/>
       <c r="G37" s="33">
         <f>H37+$E$5*$E36</f>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H37" s="31">
         <f t="shared" si="36"/>
@@ -12392,7 +9960,7 @@
       </c>
       <c r="K37" s="39">
         <f>IF(I37&lt;$E$4-1,IF($E36&gt;0,G37-$E$5,""),"")</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L37" s="17"/>
       <c r="M37" s="40" t="str">
@@ -12401,7 +9969,7 @@
       </c>
       <c r="N37" s="33">
         <f>O37+$E$5*$E36</f>
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="O37" s="31">
         <f t="shared" si="39"/>
@@ -12417,16 +9985,16 @@
       </c>
       <c r="R37" s="39">
         <f>IF(P37&lt;$E$4-1,IF($E36&gt;0,N37-$E$5,""),"")</f>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="S37" s="17"/>
       <c r="T37" s="40">
         <f>IF(P37&gt;0,IF($E36&gt;0,N37-$E$5,""),"")</f>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="U37" s="33">
         <f>V37+$E$5*$E36</f>
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="V37" s="31">
         <f t="shared" si="42"/>
@@ -12447,11 +10015,11 @@
       <c r="Z37" s="17"/>
       <c r="AA37" s="40">
         <f>IF(W37&gt;0,IF($E36&gt;0,U37-$E$5,""),"")</f>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="AB37" s="33">
         <f>AC37+$E$5*$E36</f>
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="AC37" s="31">
         <f t="shared" si="45"/>
@@ -12467,7 +10035,7 @@
       </c>
       <c r="AF37" s="39">
         <f>IF(AD37&lt;$E$4-1,IF($E36&gt;0,AB37-$E$5,""),"")</f>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="AG37" s="17"/>
       <c r="AH37" s="40" t="str">
@@ -12476,7 +10044,7 @@
       </c>
       <c r="AI37" s="33">
         <f>AJ37+$E$5*$E36</f>
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="AJ37" s="31">
         <f t="shared" si="48"/>
@@ -12492,16 +10060,16 @@
       </c>
       <c r="AM37" s="39">
         <f>IF(AK37&lt;$E$4-1,IF($E36&gt;0,AI37-$E$5,""),"")</f>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AN37" s="17"/>
       <c r="AO37" s="40">
         <f>IF(AK37&gt;0,IF($E36&gt;0,AI37-$E$5,""),"")</f>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AP37" s="33">
         <f>AQ37+$E$5*$E36</f>
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AQ37" s="31">
         <f t="shared" si="51"/>
@@ -12522,11 +10090,11 @@
       <c r="AU37" s="17"/>
       <c r="AV37" s="40">
         <f>IF(AR37&gt;0,IF($E36&gt;0,AP37-$E$5,""),"")</f>
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="AW37" s="33">
         <f>AX37+$E$5*$E36</f>
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="AX37" s="31">
         <f t="shared" si="54"/>
@@ -12542,7 +10110,7 @@
       </c>
       <c r="BA37" s="39">
         <f>IF(AY37&lt;$E$4-1,IF($E36&gt;0,AW37-$E$5,""),"")</f>
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="BB37" s="17"/>
       <c r="BC37" s="40" t="str">
@@ -12551,7 +10119,7 @@
       </c>
       <c r="BD37" s="33">
         <f>BE37+$E$5*$E36</f>
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="BE37" s="31">
         <f t="shared" si="57"/>
@@ -12567,16 +10135,16 @@
       </c>
       <c r="BH37" s="39">
         <f>IF(BF37&lt;$E$4-1,IF($E36&gt;0,BD37-$E$5,""),"")</f>
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="BI37" s="17"/>
       <c r="BJ37" s="40">
         <f>IF(BF37&gt;0,IF($E36&gt;0,BD37-$E$5,""),"")</f>
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="BK37" s="33">
         <f>BL37+$E$5*$E36</f>
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="BL37" s="31">
         <f t="shared" si="60"/>
@@ -12597,11 +10165,11 @@
       <c r="BP37" s="17"/>
       <c r="BQ37" s="40">
         <f>IF(BM37&gt;0,IF($E36&gt;0,BK37-$E$5,""),"")</f>
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="BR37" s="33">
         <f>BS37+$E$5*$E36</f>
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="BS37" s="31">
         <f t="shared" si="63"/>
@@ -12617,7 +10185,7 @@
       </c>
       <c r="BV37" s="39">
         <f>IF(BT37&lt;$E$4-1,IF($E36&gt;0,BR37-$E$5,""),"")</f>
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="BW37" s="17"/>
       <c r="BX37" s="40" t="str">
@@ -12626,7 +10194,7 @@
       </c>
       <c r="BY37" s="33">
         <f>BZ37+$E$5*$E36</f>
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="BZ37" s="31">
         <f t="shared" si="66"/>
@@ -12642,16 +10210,16 @@
       </c>
       <c r="CC37" s="39">
         <f>IF(CA37&lt;$E$4-1,IF($E36&gt;0,BY37-$E$5,""),"")</f>
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="CD37" s="17"/>
       <c r="CE37" s="40">
         <f>IF(CA37&gt;0,IF($E36&gt;0,BY37-$E$5,""),"")</f>
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="CF37" s="33">
         <f>CG37+$E$5*$E36</f>
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="CG37" s="31">
         <f t="shared" si="69"/>
@@ -12672,14 +10240,14 @@
       <c r="CK37" s="17"/>
       <c r="CL37" s="40">
         <f>IF(CH37&gt;0,IF($E36&gt;0,CF37-$E$5,""),"")</f>
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="5:90" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F38" s="34"/>
       <c r="G38" s="18">
         <f>H38+$E$5*$E39</f>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="H38" s="29">
         <f t="shared" si="36"/>
@@ -12695,7 +10263,7 @@
       </c>
       <c r="K38" s="35">
         <f>IF(I38&lt;$E$4-1,IF($E39&lt;NY-1,G38+$E$5,""),"")</f>
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="L38" s="24"/>
       <c r="M38" s="36" t="str">
@@ -12704,7 +10272,7 @@
       </c>
       <c r="N38" s="18">
         <f>O38+$E$5*$E39</f>
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="O38" s="29">
         <f t="shared" si="39"/>
@@ -12720,16 +10288,16 @@
       </c>
       <c r="R38" s="35">
         <f>IF(P38&lt;$E$4-1,IF($E39&lt;NY-1,N38+$E$5,""),"")</f>
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="S38" s="24"/>
       <c r="T38" s="36">
         <f>IF(P38&gt;0,IF($E39&lt;NY-1,N38+$E$5,""),"")</f>
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="U38" s="18">
         <f>V38+$E$5*$E39</f>
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="V38" s="29">
         <f t="shared" si="42"/>
@@ -12750,11 +10318,11 @@
       <c r="Z38" s="24"/>
       <c r="AA38" s="36">
         <f>IF(W38&gt;0,IF($E39&lt;NY-1,U38+$E$5,""),"")</f>
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="AB38" s="18">
         <f>AC38+$E$5*$E39</f>
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="AC38" s="29">
         <f t="shared" si="45"/>
@@ -12770,7 +10338,7 @@
       </c>
       <c r="AF38" s="35">
         <f>IF(AD38&lt;$E$4-1,IF($E39&lt;NY-1,AB38+$E$5,""),"")</f>
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="AG38" s="24"/>
       <c r="AH38" s="36" t="str">
@@ -12779,7 +10347,7 @@
       </c>
       <c r="AI38" s="18">
         <f>AJ38+$E$5*$E39</f>
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="AJ38" s="29">
         <f t="shared" si="48"/>
@@ -12795,16 +10363,16 @@
       </c>
       <c r="AM38" s="35">
         <f>IF(AK38&lt;$E$4-1,IF($E39&lt;NY-1,AI38+$E$5,""),"")</f>
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="AN38" s="24"/>
       <c r="AO38" s="36">
         <f>IF(AK38&gt;0,IF($E39&lt;NY-1,AI38+$E$5,""),"")</f>
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="AP38" s="18">
         <f>AQ38+$E$5*$E39</f>
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="AQ38" s="29">
         <f t="shared" si="51"/>
@@ -12825,11 +10393,11 @@
       <c r="AU38" s="24"/>
       <c r="AV38" s="36">
         <f>IF(AR38&gt;0,IF($E39&lt;NY-1,AP38+$E$5,""),"")</f>
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="AW38" s="18">
         <f>AX38+$E$5*$E39</f>
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="AX38" s="29">
         <f t="shared" si="54"/>
@@ -12845,7 +10413,7 @@
       </c>
       <c r="BA38" s="35">
         <f>IF(AY38&lt;$E$4-1,IF($E39&lt;NY-1,AW38+$E$5,""),"")</f>
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="BB38" s="24"/>
       <c r="BC38" s="36" t="str">
@@ -12854,7 +10422,7 @@
       </c>
       <c r="BD38" s="18">
         <f>BE38+$E$5*$E39</f>
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="BE38" s="29">
         <f t="shared" si="57"/>
@@ -12870,16 +10438,16 @@
       </c>
       <c r="BH38" s="35">
         <f>IF(BF38&lt;$E$4-1,IF($E39&lt;NY-1,BD38+$E$5,""),"")</f>
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="BI38" s="24"/>
       <c r="BJ38" s="36">
         <f>IF(BF38&gt;0,IF($E39&lt;NY-1,BD38+$E$5,""),"")</f>
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="BK38" s="18">
         <f>BL38+$E$5*$E39</f>
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="BL38" s="29">
         <f t="shared" si="60"/>
@@ -12900,11 +10468,11 @@
       <c r="BP38" s="24"/>
       <c r="BQ38" s="36">
         <f>IF(BM38&gt;0,IF($E39&lt;NY-1,BK38+$E$5,""),"")</f>
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="BR38" s="18">
         <f>BS38+$E$5*$E39</f>
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="BS38" s="29">
         <f t="shared" si="63"/>
@@ -12920,7 +10488,7 @@
       </c>
       <c r="BV38" s="35">
         <f>IF(BT38&lt;$E$4-1,IF($E39&lt;NY-1,BR38+$E$5,""),"")</f>
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="BW38" s="24"/>
       <c r="BX38" s="36" t="str">
@@ -12929,7 +10497,7 @@
       </c>
       <c r="BY38" s="18">
         <f>BZ38+$E$5*$E39</f>
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="BZ38" s="29">
         <f t="shared" si="66"/>
@@ -12945,16 +10513,16 @@
       </c>
       <c r="CC38" s="35">
         <f>IF(CA38&lt;$E$4-1,IF($E39&lt;NY-1,BY38+$E$5,""),"")</f>
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="CD38" s="24"/>
       <c r="CE38" s="36">
         <f>IF(CA38&gt;0,IF($E39&lt;NY-1,BY38+$E$5,""),"")</f>
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="CF38" s="18">
         <f>CG38+$E$5*$E39</f>
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="CG38" s="29">
         <f t="shared" si="69"/>
@@ -12975,17 +10543,17 @@
       <c r="CK38" s="24"/>
       <c r="CL38" s="36">
         <f>IF(CH38&gt;0,IF($E39&lt;NY-1,CF38+$E$5,""),"")</f>
-        <v>59</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="5:90" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E39" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F39" s="34"/>
       <c r="G39" s="32">
         <f>H39+$E$5*$E39</f>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="H39" s="30">
         <f t="shared" si="36"/>
@@ -13001,11 +10569,11 @@
       </c>
       <c r="K39" s="37">
         <f>IF(I39&lt;$E$4-1,G39,"")</f>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="L39" s="45">
         <f>G39</f>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="M39" s="38" t="str">
         <f>IF(I39&gt;0,G39,"")</f>
@@ -13013,7 +10581,7 @@
       </c>
       <c r="N39" s="32">
         <f>O39+$E$5*$E39</f>
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="O39" s="30">
         <f t="shared" si="39"/>
@@ -13029,19 +10597,19 @@
       </c>
       <c r="R39" s="37">
         <f>IF(P39&lt;$E$4-1,N39,"")</f>
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="S39" s="45">
         <f>N39</f>
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="T39" s="38">
         <f>IF(P39&gt;0,N39,"")</f>
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="U39" s="32">
         <f>V39+$E$5*$E39</f>
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="V39" s="30">
         <f t="shared" si="42"/>
@@ -13061,15 +10629,15 @@
       </c>
       <c r="Z39" s="45">
         <f>U39</f>
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="AA39" s="38">
         <f>IF(W39&gt;0,U39,"")</f>
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="AB39" s="32">
         <f>AC39+$E$5*$E39</f>
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="AC39" s="30">
         <f t="shared" si="45"/>
@@ -13085,11 +10653,11 @@
       </c>
       <c r="AF39" s="37">
         <f>IF(AD39&lt;$E$4-1,AB39,"")</f>
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="AG39" s="45">
         <f>AB39</f>
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="AH39" s="38" t="str">
         <f>IF(AD39&gt;0,AB39,"")</f>
@@ -13097,7 +10665,7 @@
       </c>
       <c r="AI39" s="32">
         <f>AJ39+$E$5*$E39</f>
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="AJ39" s="30">
         <f t="shared" si="48"/>
@@ -13113,19 +10681,19 @@
       </c>
       <c r="AM39" s="37">
         <f>IF(AK39&lt;$E$4-1,AI39,"")</f>
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="AN39" s="45">
         <f>AI39</f>
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="AO39" s="38">
         <f>IF(AK39&gt;0,AI39,"")</f>
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="AP39" s="32">
         <f>AQ39+$E$5*$E39</f>
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="AQ39" s="30">
         <f t="shared" si="51"/>
@@ -13145,15 +10713,15 @@
       </c>
       <c r="AU39" s="45">
         <f>AP39</f>
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="AV39" s="38">
         <f>IF(AR39&gt;0,AP39,"")</f>
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="AW39" s="32">
         <f>AX39+$E$5*$E39</f>
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="AX39" s="30">
         <f t="shared" si="54"/>
@@ -13169,11 +10737,11 @@
       </c>
       <c r="BA39" s="37">
         <f>IF(AY39&lt;$E$4-1,AW39,"")</f>
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="BB39" s="45">
         <f>AW39</f>
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="BC39" s="38" t="str">
         <f>IF(AY39&gt;0,AW39,"")</f>
@@ -13181,7 +10749,7 @@
       </c>
       <c r="BD39" s="32">
         <f>BE39+$E$5*$E39</f>
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="BE39" s="30">
         <f t="shared" si="57"/>
@@ -13197,19 +10765,19 @@
       </c>
       <c r="BH39" s="37">
         <f>IF(BF39&lt;$E$4-1,BD39,"")</f>
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="BI39" s="45">
         <f>BD39</f>
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="BJ39" s="38">
         <f>IF(BF39&gt;0,BD39,"")</f>
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="BK39" s="32">
         <f>BL39+$E$5*$E39</f>
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="BL39" s="30">
         <f t="shared" si="60"/>
@@ -13229,15 +10797,15 @@
       </c>
       <c r="BP39" s="45">
         <f>BK39</f>
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="BQ39" s="38">
         <f>IF(BM39&gt;0,BK39,"")</f>
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="BR39" s="32">
         <f>BS39+$E$5*$E39</f>
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="BS39" s="30">
         <f t="shared" si="63"/>
@@ -13253,11 +10821,11 @@
       </c>
       <c r="BV39" s="37">
         <f>IF(BT39&lt;$E$4-1,BR39,"")</f>
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="BW39" s="45">
         <f>BR39</f>
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="BX39" s="38" t="str">
         <f>IF(BT39&gt;0,BR39,"")</f>
@@ -13265,7 +10833,7 @@
       </c>
       <c r="BY39" s="32">
         <f>BZ39+$E$5*$E39</f>
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="BZ39" s="30">
         <f t="shared" si="66"/>
@@ -13281,19 +10849,19 @@
       </c>
       <c r="CC39" s="37">
         <f>IF(CA39&lt;$E$4-1,BY39,"")</f>
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="CD39" s="45">
         <f>BY39</f>
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="CE39" s="38">
         <f>IF(CA39&gt;0,BY39,"")</f>
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="CF39" s="32">
         <f>CG39+$E$5*$E39</f>
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="CG39" s="30">
         <f t="shared" si="69"/>
@@ -13313,18 +10881,18 @@
       </c>
       <c r="CK39" s="45">
         <f>CF39</f>
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="CL39" s="38">
         <f>IF(CH39&gt;0,CF39,"")</f>
-        <v>47</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="5:90" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F40" s="34"/>
       <c r="G40" s="33">
         <f>H40+$E$5*$E39</f>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="H40" s="31">
         <f t="shared" si="36"/>
@@ -13338,9 +10906,9 @@
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="K40" s="39">
+      <c r="K40" s="39" t="str">
         <f>IF(I40&lt;$E$4-1,IF($E39&gt;0,G40-$E$5,""),"")</f>
-        <v>24</v>
+        <v/>
       </c>
       <c r="L40" s="17"/>
       <c r="M40" s="40" t="str">
@@ -13349,7 +10917,7 @@
       </c>
       <c r="N40" s="33">
         <f>O40+$E$5*$E39</f>
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="O40" s="31">
         <f t="shared" si="39"/>
@@ -13363,18 +10931,18 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="R40" s="39">
+      <c r="R40" s="39" t="str">
         <f>IF(P40&lt;$E$4-1,IF($E39&gt;0,N40-$E$5,""),"")</f>
-        <v>25</v>
+        <v/>
       </c>
       <c r="S40" s="17"/>
-      <c r="T40" s="40">
+      <c r="T40" s="40" t="str">
         <f>IF(P40&gt;0,IF($E39&gt;0,N40-$E$5,""),"")</f>
-        <v>25</v>
+        <v/>
       </c>
       <c r="U40" s="33">
         <f>V40+$E$5*$E39</f>
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="V40" s="31">
         <f t="shared" si="42"/>
@@ -13393,13 +10961,13 @@
         <v/>
       </c>
       <c r="Z40" s="17"/>
-      <c r="AA40" s="40">
+      <c r="AA40" s="40" t="str">
         <f>IF(W40&gt;0,IF($E39&gt;0,U40-$E$5,""),"")</f>
-        <v>26</v>
+        <v/>
       </c>
       <c r="AB40" s="33">
         <f>AC40+$E$5*$E39</f>
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="AC40" s="31">
         <f t="shared" si="45"/>
@@ -13413,9 +10981,9 @@
         <f t="shared" si="47"/>
         <v>1</v>
       </c>
-      <c r="AF40" s="39">
+      <c r="AF40" s="39" t="str">
         <f>IF(AD40&lt;$E$4-1,IF($E39&gt;0,AB40-$E$5,""),"")</f>
-        <v>27</v>
+        <v/>
       </c>
       <c r="AG40" s="17"/>
       <c r="AH40" s="40" t="str">
@@ -13424,7 +10992,7 @@
       </c>
       <c r="AI40" s="33">
         <f>AJ40+$E$5*$E39</f>
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="AJ40" s="31">
         <f t="shared" si="48"/>
@@ -13438,18 +11006,18 @@
         <f t="shared" si="50"/>
         <v>1</v>
       </c>
-      <c r="AM40" s="39">
+      <c r="AM40" s="39" t="str">
         <f>IF(AK40&lt;$E$4-1,IF($E39&gt;0,AI40-$E$5,""),"")</f>
-        <v>28</v>
+        <v/>
       </c>
       <c r="AN40" s="17"/>
-      <c r="AO40" s="40">
+      <c r="AO40" s="40" t="str">
         <f>IF(AK40&gt;0,IF($E39&gt;0,AI40-$E$5,""),"")</f>
-        <v>28</v>
+        <v/>
       </c>
       <c r="AP40" s="33">
         <f>AQ40+$E$5*$E39</f>
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="AQ40" s="31">
         <f t="shared" si="51"/>
@@ -13468,13 +11036,13 @@
         <v/>
       </c>
       <c r="AU40" s="17"/>
-      <c r="AV40" s="40">
+      <c r="AV40" s="40" t="str">
         <f>IF(AR40&gt;0,IF($E39&gt;0,AP40-$E$5,""),"")</f>
-        <v>29</v>
+        <v/>
       </c>
       <c r="AW40" s="33">
         <f>AX40+$E$5*$E39</f>
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="AX40" s="31">
         <f t="shared" si="54"/>
@@ -13488,9 +11056,9 @@
         <f t="shared" si="56"/>
         <v>2</v>
       </c>
-      <c r="BA40" s="39">
+      <c r="BA40" s="39" t="str">
         <f>IF(AY40&lt;$E$4-1,IF($E39&gt;0,AW40-$E$5,""),"")</f>
-        <v>30</v>
+        <v/>
       </c>
       <c r="BB40" s="17"/>
       <c r="BC40" s="40" t="str">
@@ -13499,7 +11067,7 @@
       </c>
       <c r="BD40" s="33">
         <f>BE40+$E$5*$E39</f>
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="BE40" s="31">
         <f t="shared" si="57"/>
@@ -13513,18 +11081,18 @@
         <f t="shared" si="59"/>
         <v>2</v>
       </c>
-      <c r="BH40" s="39">
+      <c r="BH40" s="39" t="str">
         <f>IF(BF40&lt;$E$4-1,IF($E39&gt;0,BD40-$E$5,""),"")</f>
-        <v>31</v>
+        <v/>
       </c>
       <c r="BI40" s="17"/>
-      <c r="BJ40" s="40">
+      <c r="BJ40" s="40" t="str">
         <f>IF(BF40&gt;0,IF($E39&gt;0,BD40-$E$5,""),"")</f>
-        <v>31</v>
+        <v/>
       </c>
       <c r="BK40" s="33">
         <f>BL40+$E$5*$E39</f>
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="BL40" s="31">
         <f t="shared" si="60"/>
@@ -13543,13 +11111,13 @@
         <v/>
       </c>
       <c r="BP40" s="17"/>
-      <c r="BQ40" s="40">
+      <c r="BQ40" s="40" t="str">
         <f>IF(BM40&gt;0,IF($E39&gt;0,BK40-$E$5,""),"")</f>
-        <v>32</v>
+        <v/>
       </c>
       <c r="BR40" s="33">
         <f>BS40+$E$5*$E39</f>
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="BS40" s="31">
         <f t="shared" si="63"/>
@@ -13563,9 +11131,9 @@
         <f t="shared" si="65"/>
         <v>3</v>
       </c>
-      <c r="BV40" s="39">
+      <c r="BV40" s="39" t="str">
         <f>IF(BT40&lt;$E$4-1,IF($E39&gt;0,BR40-$E$5,""),"")</f>
-        <v>33</v>
+        <v/>
       </c>
       <c r="BW40" s="17"/>
       <c r="BX40" s="40" t="str">
@@ -13574,7 +11142,7 @@
       </c>
       <c r="BY40" s="33">
         <f>BZ40+$E$5*$E39</f>
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="BZ40" s="31">
         <f t="shared" si="66"/>
@@ -13588,18 +11156,18 @@
         <f t="shared" si="68"/>
         <v>3</v>
       </c>
-      <c r="CC40" s="39">
+      <c r="CC40" s="39" t="str">
         <f>IF(CA40&lt;$E$4-1,IF($E39&gt;0,BY40-$E$5,""),"")</f>
-        <v>34</v>
+        <v/>
       </c>
       <c r="CD40" s="17"/>
-      <c r="CE40" s="40">
+      <c r="CE40" s="40" t="str">
         <f>IF(CA40&gt;0,IF($E39&gt;0,BY40-$E$5,""),"")</f>
-        <v>34</v>
+        <v/>
       </c>
       <c r="CF40" s="33">
         <f>CG40+$E$5*$E39</f>
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="CG40" s="31">
         <f t="shared" si="69"/>
@@ -13618,9 +11186,9 @@
         <v/>
       </c>
       <c r="CK40" s="17"/>
-      <c r="CL40" s="40">
+      <c r="CL40" s="40" t="str">
         <f>IF(CH40&gt;0,IF($E39&gt;0,CF40-$E$5,""),"")</f>
-        <v>35</v>
+        <v/>
       </c>
     </row>
   </sheetData>
